--- a/data/mBonita_pvalues/pvalues_concatenated_20220816.xlsx
+++ b/data/mBonita_pvalues/pvalues_concatenated_20220816.xlsx
@@ -2421,6 +2421,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G305" totalsRowShown="0">
   <autoFilter ref="A1:G305"/>
+  <sortState ref="A2:G305">
+    <sortCondition ref="B1:B305"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="pathway"/>
@@ -2699,8 +2702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:G305"/>
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G281" sqref="G281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,6994 +2740,6994 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>5225</v>
+        <v>5221</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>0.82899677691999896</v>
+        <v>1.8115591345583699</v>
       </c>
       <c r="F2">
-        <v>1.21023405140538</v>
+        <v>0.36881018466388799</v>
       </c>
       <c r="G2">
-        <v>1.25601422517016</v>
+        <v>0.168845762539033</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C3">
-        <v>4962</v>
+        <v>4520</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="E3">
-        <v>0.12866922500243</v>
+        <v>1.2130354698072701</v>
       </c>
       <c r="F3">
-        <v>9.4893688784312896E-2</v>
+        <v>3.3924208720033402</v>
       </c>
       <c r="G3">
-        <v>0.145633860392581</v>
+        <v>2.9005514061745399</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="C4">
-        <v>3250</v>
+        <v>4920</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="E4">
-        <v>1.3767265903214301</v>
+        <v>0.55548492244162295</v>
       </c>
       <c r="F4">
-        <v>3.3099569385333898</v>
+        <v>0.57001861219404604</v>
       </c>
       <c r="G4">
-        <v>2.1356700831989999</v>
+        <v>0.57718725131249204</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="C5">
-        <v>4912</v>
+        <v>4261</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>333</v>
       </c>
       <c r="E5">
-        <v>2.6330940356755299</v>
+        <v>0.65872447705697701</v>
       </c>
       <c r="F5">
-        <v>0.66809684218046395</v>
+        <v>0.243707133720303</v>
       </c>
       <c r="G5">
-        <v>0.39344852569966998</v>
+        <v>0.144521603913048</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="C6">
-        <v>5218</v>
+        <v>5143</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E6">
-        <v>0.78481573578298602</v>
+        <v>0.29812211140247502</v>
       </c>
       <c r="F6">
-        <v>0.98088841631944601</v>
+        <v>0.30651755909988898</v>
       </c>
       <c r="G6">
-        <v>1.2730214070988599</v>
+        <v>0.27511853699507399</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>4933</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="E7">
-        <v>0.53779324734442202</v>
+        <v>0.109249825603564</v>
       </c>
       <c r="F7">
-        <v>0.42490109487362099</v>
+        <v>5.7258202902905002E-2</v>
       </c>
       <c r="G7">
-        <v>0.24549029337664299</v>
+        <v>6.6321825343788998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="C8">
-        <v>830</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="E8">
-        <v>0.16443939090930401</v>
+        <v>0.17134736548485499</v>
       </c>
       <c r="F8">
-        <v>0.146885727469931</v>
+        <v>9.2675936445060794E-2</v>
       </c>
       <c r="G8">
-        <v>0.21723992781408999</v>
+        <v>0.28790281336065299</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>492</v>
       </c>
       <c r="C9">
-        <v>785</v>
+        <v>4936</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>493</v>
       </c>
       <c r="E9">
-        <v>0.24444176004617499</v>
+        <v>0.59552632008414497</v>
       </c>
       <c r="F9">
-        <v>0.159066971338198</v>
+        <v>0.591195317877792</v>
       </c>
       <c r="G9">
-        <v>0.25666019375475502</v>
+        <v>0.53569488705334201</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="C10">
-        <v>4964</v>
+        <v>5034</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="E10">
-        <v>0.75210553033628502</v>
+        <v>1.7134106737368999</v>
       </c>
       <c r="F10">
-        <v>0.21562862387015899</v>
+        <v>0.41461227578692</v>
       </c>
       <c r="G10">
-        <v>0.54000844625463895</v>
+        <v>0.29282012116447098</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>482</v>
       </c>
       <c r="C11">
-        <v>4625</v>
+        <v>4925</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>483</v>
       </c>
       <c r="E11">
-        <v>1.3340852659790601</v>
+        <v>1.3584163498333399</v>
       </c>
       <c r="F11">
-        <v>0.66420717855701705</v>
+        <v>0.43540591124405698</v>
       </c>
       <c r="G11">
-        <v>0.82542583398783798</v>
+        <v>0.23788023708759301</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="C12">
-        <v>5221</v>
+        <v>4960</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="E12">
-        <v>1.8115591345583699</v>
+        <v>1.2098842038487001</v>
       </c>
       <c r="F12">
-        <v>0.36881018466388799</v>
+        <v>0.39345863280367099</v>
       </c>
       <c r="G12">
-        <v>0.168845762539033</v>
+        <v>0.41167784817973702</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>4145</v>
+        <v>5330</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>0.25510469973065802</v>
+        <v>0.263482998342773</v>
       </c>
       <c r="F13">
-        <v>0.31451996620392803</v>
+        <v>0.17076595739348599</v>
       </c>
       <c r="G13">
-        <v>0.32841428840800702</v>
+        <v>0.241292911868597</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="C14">
-        <v>5217</v>
+        <v>592</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="E14">
-        <v>0.55541658283071205</v>
+        <v>0.29963233434001901</v>
       </c>
       <c r="F14">
-        <v>1.11545463585099</v>
+        <v>0.138368060083289</v>
       </c>
       <c r="G14">
-        <v>1.96609327826415</v>
+        <v>0.23010759842627701</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="C15">
-        <v>5223</v>
+        <v>5010</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="E15">
-        <v>1.0376462124343</v>
+        <v>0.71564059150381898</v>
       </c>
       <c r="F15">
-        <v>0.194667184209593</v>
+        <v>0.91605273618183802</v>
       </c>
       <c r="G15">
-        <v>0.16321978408256399</v>
+        <v>1.1245632018196601</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C16">
-        <v>5330</v>
+        <v>520</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="E16">
-        <v>0.263482998342773</v>
+        <v>0.28975346597936202</v>
       </c>
       <c r="F16">
-        <v>0.17076595739348599</v>
+        <v>0.23802862008544801</v>
       </c>
       <c r="G16">
-        <v>0.241292911868597</v>
+        <v>0.42129774340110399</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>490</v>
       </c>
       <c r="C17">
-        <v>4022</v>
+        <v>970</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>491</v>
       </c>
       <c r="E17">
-        <v>2.1244227715269601</v>
+        <v>0.98082723414241302</v>
       </c>
       <c r="F17">
-        <v>1.2400176107665499</v>
+        <v>6.5342955477883297E-2</v>
       </c>
       <c r="G17">
-        <v>1.50471703825317</v>
+        <v>0.28790844597077497</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C18">
-        <v>140</v>
+        <v>5146</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E18">
-        <v>0.23800687123907199</v>
+        <v>0.23333936339431799</v>
       </c>
       <c r="F18">
-        <v>0.114303859743233</v>
+        <v>0.16602226016365501</v>
       </c>
       <c r="G18">
-        <v>0.25964917328771497</v>
+        <v>0.19330296906913799</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="C19">
-        <v>4066</v>
+        <v>5031</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="E19">
-        <v>2.3067997671865301</v>
+        <v>1.5367818183426301</v>
       </c>
       <c r="F19">
-        <v>2.3963843468908399</v>
+        <v>1.08206093700259</v>
       </c>
       <c r="G19">
-        <v>1.0085725580051199</v>
+        <v>0.90973509578841305</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="C20">
-        <v>4724</v>
+        <v>4152</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="E20">
-        <v>0.54870576155481399</v>
+        <v>1.23356520955113</v>
       </c>
       <c r="F20">
-        <v>0.416377868329324</v>
+        <v>2.4602602762809198</v>
       </c>
       <c r="G20">
-        <v>0.58124947031585095</v>
+        <v>2.2656899670107</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="C21">
-        <v>5012</v>
+        <v>5014</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="E21">
-        <v>0.119711063090732</v>
+        <v>0.51751101467670102</v>
       </c>
       <c r="F21">
-        <v>5.7129654908232699E-2</v>
+        <v>0.93594958437501496</v>
       </c>
       <c r="G21">
-        <v>5.3914772759643098E-2</v>
+        <v>1.1116806935391601</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>408</v>
       </c>
       <c r="C22">
-        <v>5146</v>
+        <v>1523</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>409</v>
       </c>
       <c r="E22">
-        <v>0.23333936339431799</v>
+        <v>0.27769120312473999</v>
       </c>
       <c r="F22">
-        <v>0.16602226016365501</v>
+        <v>0.22707991652326101</v>
       </c>
       <c r="G22">
-        <v>0.19330296906913799</v>
+        <v>0.16931101359814901</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>418</v>
       </c>
       <c r="C23">
-        <v>5410</v>
+        <v>4612</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>419</v>
       </c>
       <c r="E23">
-        <v>0.36562377842778898</v>
+        <v>0.248347050789791</v>
       </c>
       <c r="F23">
-        <v>0.25353063025373501</v>
+        <v>0.16038696895038701</v>
       </c>
       <c r="G23">
-        <v>0.34027429355369998</v>
+        <v>0.144970863882881</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C24">
-        <v>510</v>
+        <v>4371</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="E24">
-        <v>0.31904158634477398</v>
+        <v>1.03797623052338</v>
       </c>
       <c r="F24">
-        <v>8.9303245853516205E-2</v>
+        <v>0.57160642993120103</v>
       </c>
       <c r="G24">
-        <v>0.172453957568</v>
+        <v>0.62626882760013103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>506</v>
       </c>
       <c r="C25">
-        <v>4114</v>
+        <v>4210</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>507</v>
       </c>
       <c r="E25">
-        <v>2.6245955851741698</v>
+        <v>1.69862636930814</v>
       </c>
       <c r="F25">
-        <v>2.7882086278332001</v>
+        <v>2.8104627244862899</v>
       </c>
       <c r="G25">
-        <v>1.9961111542155501</v>
+        <v>3.2606484147180002</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>276</v>
       </c>
       <c r="C26">
-        <v>4310</v>
+        <v>4215</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
       <c r="E26">
-        <v>2.5815682447986501</v>
+        <v>0.32157656670227702</v>
       </c>
       <c r="F26">
-        <v>1.3910244467383901</v>
+        <v>3.1653664109593902</v>
       </c>
       <c r="G26">
-        <v>1.4050735604273901</v>
+        <v>4.8002162861605804</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="C27">
-        <v>3015</v>
+        <v>590</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="E27">
-        <v>0.53572942086415298</v>
+        <v>0.18870612927942601</v>
       </c>
       <c r="F27">
-        <v>1.6803232209079999</v>
+        <v>0.15933683152379799</v>
       </c>
       <c r="G27">
-        <v>1.53331657598647</v>
+        <v>0.16600548821826999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>420</v>
       </c>
       <c r="C28">
-        <v>3440</v>
+        <v>330</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>421</v>
       </c>
       <c r="E28">
-        <v>1.8702114695787</v>
+        <v>0.25408294819144001</v>
       </c>
       <c r="F28">
-        <v>0.50552087858619499</v>
+        <v>0.153810881640154</v>
       </c>
       <c r="G28">
-        <v>0.31839519556740198</v>
+        <v>0.27538618876972298</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="C29">
-        <v>5152</v>
+        <v>220</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="E29">
-        <v>1.3238122133844501</v>
+        <v>0.48247290499175</v>
       </c>
       <c r="F29">
-        <v>0.79999810207876698</v>
+        <v>0.17850582983263499</v>
       </c>
       <c r="G29">
-        <v>0.52693672611874998</v>
+        <v>0.279009355482294</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="C30">
-        <v>4110</v>
+        <v>5412</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>245</v>
       </c>
       <c r="E30">
-        <v>0.58263245498891503</v>
+        <v>1.0671790191633299</v>
       </c>
       <c r="F30">
-        <v>0.44360189902773201</v>
+        <v>0.62095047628529298</v>
       </c>
       <c r="G30">
-        <v>0.50548346297292501</v>
+        <v>0.28944864293763101</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="C31">
-        <v>604</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="E31">
-        <v>0.134728141543762</v>
+        <v>0.29279534636743998</v>
       </c>
       <c r="F31">
-        <v>0.123815279709273</v>
+        <v>0.16836150013989501</v>
       </c>
       <c r="G31">
-        <v>0.22170747644018099</v>
+        <v>0.30929284238864801</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="C32">
-        <v>5416</v>
+        <v>5320</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="E32">
-        <v>0.54351748411245104</v>
+        <v>0.244489654677015</v>
       </c>
       <c r="F32">
-        <v>0.32455727380125099</v>
+        <v>0.19317386969764</v>
       </c>
       <c r="G32">
-        <v>0.57498248510171901</v>
+        <v>0.21719341845346901</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>380</v>
       </c>
       <c r="C33">
-        <v>4664</v>
+        <v>4140</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>381</v>
       </c>
       <c r="E33">
-        <v>1.1250294611068901</v>
+        <v>2.99769905435627</v>
       </c>
       <c r="F33">
-        <v>0.32320261993334198</v>
+        <v>5.3753601671248701</v>
       </c>
       <c r="G33">
-        <v>0.52247331313816803</v>
+        <v>4.6047780024691303</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34">
-        <v>4929</v>
+        <v>4136</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E34">
-        <v>1.45852356032437</v>
+        <v>0.30592488366127102</v>
       </c>
       <c r="F34">
-        <v>0.27648592812426198</v>
+        <v>1.1458698946874699</v>
       </c>
       <c r="G34">
-        <v>0.19312031765101101</v>
+        <v>1.5209598870963299</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>536</v>
       </c>
       <c r="C35">
-        <v>4136</v>
+        <v>4360</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>537</v>
       </c>
       <c r="E35">
-        <v>0.30592488366127102</v>
+        <v>1.3096037170768799</v>
       </c>
       <c r="F35">
-        <v>1.1458698946874699</v>
+        <v>0.53435579454875304</v>
       </c>
       <c r="G35">
-        <v>1.5209598870963299</v>
+        <v>0.82199771640714903</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>488</v>
       </c>
       <c r="C36">
-        <v>4660</v>
+        <v>4662</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>489</v>
       </c>
       <c r="E36">
-        <v>1.7501531488533999</v>
+        <v>1.66156473825783</v>
       </c>
       <c r="F36">
-        <v>0.69577672332245</v>
+        <v>0.54871324821773804</v>
       </c>
       <c r="G36">
-        <v>0.92052192383436804</v>
+        <v>0.59565484523298295</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="C37">
-        <v>310</v>
+        <v>5100</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="E37">
-        <v>1.00006950886219</v>
+        <v>0.27389335142669902</v>
       </c>
       <c r="F37">
-        <v>1.0943902820350899</v>
+        <v>0.57924996285986197</v>
       </c>
       <c r="G37">
-        <v>1.3171758165295999</v>
+        <v>0.54867052172780995</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C38">
-        <v>4070</v>
+        <v>5217</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E38">
-        <v>0.78773156608489503</v>
+        <v>0.55541658283071205</v>
       </c>
       <c r="F38">
-        <v>1.2519947459637699</v>
+        <v>1.11545463585099</v>
       </c>
       <c r="G38">
-        <v>0.59400613027353599</v>
+        <v>1.96609327826415</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="C39">
-        <v>4726</v>
+        <v>410</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="E39">
-        <v>0.74060199098739099</v>
+        <v>0.36231996148078799</v>
       </c>
       <c r="F39">
-        <v>0.17336409536959499</v>
+        <v>0.13106951544648399</v>
       </c>
       <c r="G39">
-        <v>0.125491804743632</v>
+        <v>0.26512697338623098</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="C40">
-        <v>5332</v>
+        <v>4976</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>479</v>
       </c>
       <c r="E40">
-        <v>0.28328997574322901</v>
+        <v>0.60802679655565095</v>
       </c>
       <c r="F40">
-        <v>0.20023789554858101</v>
+        <v>0.323095231879723</v>
       </c>
       <c r="G40">
-        <v>0.241377193580426</v>
+        <v>0.42340112947120201</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="C41">
-        <v>4916</v>
+        <v>780</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="E41">
-        <v>2.9120327856160699</v>
+        <v>0.191284139492129</v>
       </c>
       <c r="F41">
-        <v>1.18734135401603</v>
+        <v>0.19026316203361901</v>
       </c>
       <c r="G41">
-        <v>0.76127466270303301</v>
+        <v>0.20623793971066701</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>530</v>
       </c>
       <c r="C42">
-        <v>5169</v>
+        <v>5219</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>531</v>
       </c>
       <c r="E42">
-        <v>0.14306511752182699</v>
+        <v>1.83569170890282</v>
       </c>
       <c r="F42">
-        <v>0.238349900397616</v>
+        <v>0.26044961431271801</v>
       </c>
       <c r="G42">
-        <v>0.289679058347943</v>
+        <v>0.32019107029652299</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>498</v>
       </c>
       <c r="C43">
-        <v>900</v>
+        <v>5224</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>499</v>
       </c>
       <c r="E43">
-        <v>0.47605996726527899</v>
+        <v>0.99511735655751399</v>
       </c>
       <c r="F43">
-        <v>0.14275240124177899</v>
+        <v>1.54717449539995</v>
       </c>
       <c r="G43">
-        <v>0.33355013610920797</v>
+        <v>1.71235055334209</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="C44">
-        <v>591</v>
+        <v>650</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>263</v>
       </c>
       <c r="E44">
-        <v>0.249515558976836</v>
+        <v>0.34705433785579698</v>
       </c>
       <c r="F44">
-        <v>0.20164244768393</v>
+        <v>9.3385285037702201E-2</v>
       </c>
       <c r="G44">
-        <v>0.193215100327807</v>
+        <v>0.29874268832620599</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>308</v>
       </c>
       <c r="C45">
-        <v>4024</v>
+        <v>4020</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>309</v>
       </c>
       <c r="E45">
-        <v>2.6666482321783498</v>
+        <v>0.99610231648172198</v>
       </c>
       <c r="F45">
-        <v>0.61464942577406101</v>
+        <v>0.49816001325848303</v>
       </c>
       <c r="G45">
-        <v>0.2418551923135</v>
+        <v>0.54855235927412105</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46">
-        <v>4068</v>
+        <v>4024</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E46">
-        <v>2.4062966973495801</v>
+        <v>2.6666482321783498</v>
       </c>
       <c r="F46">
-        <v>2.9237195071339399</v>
+        <v>0.61464942577406101</v>
       </c>
       <c r="G46">
-        <v>2.2694894600114899</v>
+        <v>0.2418551923135</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>564</v>
       </c>
       <c r="C47">
-        <v>520</v>
+        <v>4973</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>565</v>
       </c>
       <c r="E47">
-        <v>0.28975346597936202</v>
+        <v>0.26442737668086302</v>
       </c>
       <c r="F47">
-        <v>0.23802862008544801</v>
+        <v>0.18341473041818299</v>
       </c>
       <c r="G47">
-        <v>0.42129774340110399</v>
+        <v>0.17298933258332</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="C48">
-        <v>860</v>
+        <v>4514</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c r="E48">
-        <v>6.7859942388902694E-2</v>
+        <v>0.71994382182276495</v>
       </c>
       <c r="F48">
-        <v>8.7599984660125405E-2</v>
+        <v>1.0653799816389999</v>
       </c>
       <c r="G48">
-        <v>0.120971458763343</v>
+        <v>0.92949639809264495</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C49">
-        <v>4922</v>
+        <v>4110</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="E49">
-        <v>4.0472689407362097</v>
+        <v>0.58263245498891503</v>
       </c>
       <c r="F49">
-        <v>3.1951315643420299</v>
+        <v>0.44360189902773201</v>
       </c>
       <c r="G49">
-        <v>2.60828651368243</v>
+        <v>0.50548346297292501</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="C50">
-        <v>4926</v>
+        <v>4218</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>291</v>
       </c>
       <c r="E50">
-        <v>0.50893908707789803</v>
+        <v>2.95204474478385</v>
       </c>
       <c r="F50">
-        <v>8.0230023016184995E-2</v>
+        <v>4.9819039530800904</v>
       </c>
       <c r="G50">
-        <v>0.11905941326204</v>
+        <v>4.2017616844030599</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>366</v>
       </c>
       <c r="C51">
-        <v>4370</v>
+        <v>5230</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>367</v>
       </c>
       <c r="E51">
-        <v>1.8641812386179499</v>
+        <v>1.09848316183745</v>
       </c>
       <c r="F51">
-        <v>0.65290729120450097</v>
+        <v>0.52192370771824503</v>
       </c>
       <c r="G51">
-        <v>0.75487290087125902</v>
+        <v>0.41674318141876499</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="C52">
-        <v>5213</v>
+        <v>4022</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="E52">
-        <v>1.89906441706244</v>
+        <v>2.1244227715269601</v>
       </c>
       <c r="F52">
-        <v>0.70301710576587095</v>
+        <v>1.2400176107665499</v>
       </c>
       <c r="G52">
-        <v>1.0165255913934901</v>
+        <v>1.50471703825317</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>606</v>
       </c>
       <c r="C53">
-        <v>4520</v>
+        <v>5142</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>607</v>
       </c>
       <c r="E53">
-        <v>1.2130354698072701</v>
+        <v>0.13357792435492599</v>
       </c>
       <c r="F53">
-        <v>3.3924208720033402</v>
+        <v>7.3833002813496099E-2</v>
       </c>
       <c r="G53">
-        <v>2.9005514061745399</v>
+        <v>6.7352499674671495E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>546</v>
       </c>
       <c r="C54">
-        <v>5110</v>
+        <v>5204</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>547</v>
       </c>
       <c r="E54">
-        <v>0.27430307494465</v>
+        <v>0.24291714192305799</v>
       </c>
       <c r="F54">
-        <v>0.130341167649348</v>
+        <v>0.232677791749242</v>
       </c>
       <c r="G54">
-        <v>0.16887469986936501</v>
+        <v>0.221837680001604</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>338</v>
       </c>
       <c r="C55">
-        <v>430</v>
+        <v>5208</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="E55">
-        <v>0.38016542013571297</v>
+        <v>0.62557841864014996</v>
       </c>
       <c r="F55">
-        <v>0.15007490368277901</v>
+        <v>8.8445048688973599E-2</v>
       </c>
       <c r="G55">
-        <v>0.32468945786306103</v>
+        <v>9.4136816277279795E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C56">
-        <v>5220</v>
+        <v>5207</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E56">
-        <v>0.82732517144182305</v>
+        <v>1.9701598723617899</v>
       </c>
       <c r="F56">
-        <v>0.21596958876841199</v>
+        <v>0.96090597116264598</v>
       </c>
       <c r="G56">
-        <v>0.18604350206940201</v>
+        <v>1.0062262101293999</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>590</v>
       </c>
       <c r="C57">
-        <v>5235</v>
+        <v>4062</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>591</v>
       </c>
       <c r="E57">
-        <v>1.22294106911696</v>
+        <v>0.93161285747122702</v>
       </c>
       <c r="F57">
-        <v>0.41162636737935798</v>
+        <v>0.95755893463881103</v>
       </c>
       <c r="G57">
-        <v>0.463221700519099</v>
+        <v>0.91189011570058998</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>426</v>
       </c>
       <c r="C58">
-        <v>5207</v>
+        <v>4979</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>427</v>
       </c>
       <c r="E58">
-        <v>1.9701598723617899</v>
+        <v>0.62043441355954798</v>
       </c>
       <c r="F58">
-        <v>0.96090597116264598</v>
+        <v>0.33617377159874501</v>
       </c>
       <c r="G58">
-        <v>1.0062262101293999</v>
+        <v>0.36134356612527901</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="C59">
-        <v>5418</v>
+        <v>5231</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="E59">
-        <v>1.1755750269048</v>
+        <v>0.99931511297800901</v>
       </c>
       <c r="F59">
-        <v>0.35797480412020399</v>
+        <v>0.20900962287497199</v>
       </c>
       <c r="G59">
-        <v>0.302463515012735</v>
+        <v>0.16634429994185901</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="C60">
-        <v>920</v>
+        <v>4725</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>297</v>
       </c>
       <c r="E60">
-        <v>0.215736921099069</v>
+        <v>0.91215831549437099</v>
       </c>
       <c r="F60">
-        <v>0.16119314050657199</v>
+        <v>0.37690773863114302</v>
       </c>
       <c r="G60">
-        <v>0.19911510047418499</v>
+        <v>0.41456409192405003</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C61">
-        <v>4931</v>
+        <v>5220</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E61">
-        <v>1.1234673720564501</v>
+        <v>0.82732517144182305</v>
       </c>
       <c r="F61">
-        <v>0.99916814831127199</v>
+        <v>0.21596958876841199</v>
       </c>
       <c r="G61">
-        <v>1.13289467183354</v>
+        <v>0.18604350206940201</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>60</v>
+        <v>251</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>508</v>
       </c>
       <c r="C62">
-        <v>500</v>
+        <v>4713</v>
       </c>
       <c r="D62" t="s">
-        <v>127</v>
+        <v>509</v>
       </c>
       <c r="E62">
-        <v>0.131953542357613</v>
+        <v>0.48740904806007901</v>
       </c>
       <c r="F62">
-        <v>0.48641974332999799</v>
+        <v>0.75208309465775602</v>
       </c>
       <c r="G62">
-        <v>0.58546701985409899</v>
+        <v>0.64628568553941501</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C63">
-        <v>5216</v>
+        <v>4710</v>
       </c>
       <c r="D63" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E63">
-        <v>0.15255794022629901</v>
+        <v>1.4183748967886101</v>
       </c>
       <c r="F63">
-        <v>8.8607090101346597E-2</v>
+        <v>3.2599840153992599</v>
       </c>
       <c r="G63">
-        <v>0.140003163313424</v>
+        <v>2.6858560746961899</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>62</v>
+        <v>301</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>608</v>
       </c>
       <c r="C64">
-        <v>740</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>131</v>
+        <v>609</v>
       </c>
       <c r="E64">
-        <v>0.25724888667761397</v>
+        <v>0.146772627860735</v>
       </c>
       <c r="F64">
-        <v>0.19352232991321</v>
+        <v>7.8544267053124797E-2</v>
       </c>
       <c r="G64">
-        <v>0.21780359425166701</v>
+        <v>0.14453112544701699</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="C65">
-        <v>62</v>
+        <v>5030</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="E65">
-        <v>0.38418779870018199</v>
+        <v>0.37145342908468998</v>
       </c>
       <c r="F65">
-        <v>0.176993070464738</v>
+        <v>0.18590153674044099</v>
       </c>
       <c r="G65">
-        <v>0.13999850142461601</v>
+        <v>0.226313615383537</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>446</v>
       </c>
       <c r="C66">
-        <v>4390</v>
+        <v>5210</v>
       </c>
       <c r="D66" t="s">
-        <v>135</v>
+        <v>447</v>
       </c>
       <c r="E66">
-        <v>1.37059224690537</v>
+        <v>0.86681828161866104</v>
       </c>
       <c r="F66">
-        <v>1.3396845126630701</v>
+        <v>0.38033146845287802</v>
       </c>
       <c r="G66">
-        <v>1.18337544235166</v>
+        <v>0.59072690159357399</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>376</v>
       </c>
       <c r="C67">
-        <v>4064</v>
+        <v>4610</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>377</v>
       </c>
       <c r="E67">
-        <v>0.46037251246953198</v>
+        <v>0.28898852320299601</v>
       </c>
       <c r="F67">
-        <v>1.20973095741633</v>
+        <v>0.159686126755261</v>
       </c>
       <c r="G67">
-        <v>1.9006471524941799</v>
+        <v>0.206978206509529</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>474</v>
       </c>
       <c r="C68">
-        <v>4975</v>
+        <v>5171</v>
       </c>
       <c r="D68" t="s">
-        <v>139</v>
+        <v>475</v>
       </c>
       <c r="E68">
-        <v>0.20612236136161299</v>
+        <v>0.213065723042064</v>
       </c>
       <c r="F68">
-        <v>0.186682730987316</v>
+        <v>0.66031744229690503</v>
       </c>
       <c r="G68">
-        <v>0.221112941443872</v>
+        <v>0.29333512022464397</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>406</v>
       </c>
       <c r="C69">
-        <v>4932</v>
+        <v>4927</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>407</v>
       </c>
       <c r="E69">
-        <v>0.93471813190817699</v>
+        <v>0.43555902647442302</v>
       </c>
       <c r="F69">
-        <v>0.79034175042819999</v>
+        <v>0.145542876450443</v>
       </c>
       <c r="G69">
-        <v>0.48322258279667701</v>
+        <v>0.210983252722516</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="C70">
-        <v>5222</v>
+        <v>4625</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="E70">
-        <v>0.340996856358878</v>
+        <v>1.3340852659790601</v>
       </c>
       <c r="F70">
-        <v>0.56530442224872501</v>
+        <v>0.66420717855701705</v>
       </c>
       <c r="G70">
-        <v>0.626578415086814</v>
+        <v>0.82542583398783798</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>318</v>
       </c>
       <c r="C71">
-        <v>5320</v>
+        <v>4934</v>
       </c>
       <c r="D71" t="s">
-        <v>145</v>
+        <v>319</v>
       </c>
       <c r="E71">
-        <v>0.244489654677015</v>
+        <v>0.87873985528339604</v>
       </c>
       <c r="F71">
-        <v>0.19317386969764</v>
+        <v>0.976584166047057</v>
       </c>
       <c r="G71">
-        <v>0.21719341845346901</v>
+        <v>0.94296674999122598</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>70</v>
+        <v>282</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>570</v>
       </c>
       <c r="C72">
-        <v>4115</v>
+        <v>270</v>
       </c>
       <c r="D72" t="s">
-        <v>147</v>
+        <v>571</v>
       </c>
       <c r="E72">
-        <v>0.51427470918466101</v>
+        <v>0.49676910324941798</v>
       </c>
       <c r="F72">
-        <v>0.10994158075925101</v>
+        <v>0.17103082804281899</v>
       </c>
       <c r="G72">
-        <v>0.26650698028679698</v>
+        <v>0.292921687601504</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>480</v>
       </c>
       <c r="C73">
-        <v>4710</v>
+        <v>4060</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>481</v>
       </c>
       <c r="E73">
-        <v>1.4183748967886101</v>
+        <v>0.39928971684043102</v>
       </c>
       <c r="F73">
-        <v>3.2599840153992599</v>
+        <v>0.89828526440062795</v>
       </c>
       <c r="G73">
-        <v>2.6858560746961899</v>
+        <v>1.5600665572957799</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="C74">
-        <v>5206</v>
+        <v>4623</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="E74">
-        <v>2.8805200175560501</v>
+        <v>0.80684079493891803</v>
       </c>
       <c r="F74">
-        <v>1.4971000467242701</v>
+        <v>0.41528891784286998</v>
       </c>
       <c r="G74">
-        <v>1.2387248628877701</v>
+        <v>0.21894736340659901</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
       <c r="C75">
-        <v>5032</v>
+        <v>5415</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>389</v>
       </c>
       <c r="E75">
-        <v>0.32606800620742499</v>
+        <v>0.292058224332643</v>
       </c>
       <c r="F75">
-        <v>0.12501276998353</v>
+        <v>0.22507589551572901</v>
       </c>
       <c r="G75">
-        <v>0.125082463970317</v>
+        <v>0.13939904604363501</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="C76">
-        <v>620</v>
+        <v>5414</v>
       </c>
       <c r="D76" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="E76">
-        <v>0.48780065975470799</v>
+        <v>0.21970206510465201</v>
       </c>
       <c r="F76">
-        <v>9.4261248694980301E-2</v>
+        <v>0.12894755527082899</v>
       </c>
       <c r="G76">
-        <v>0.32189302343362303</v>
+        <v>0.18102788625109101</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>528</v>
       </c>
       <c r="C77">
-        <v>5132</v>
+        <v>4728</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>529</v>
       </c>
       <c r="E77">
-        <v>1.1760116825359499</v>
+        <v>0.735328392069169</v>
       </c>
       <c r="F77">
-        <v>2.9374321465976201</v>
+        <v>0.369441319723116</v>
       </c>
       <c r="G77">
-        <v>2.5545330185106399</v>
+        <v>0.36786069009345101</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="C78">
-        <v>53</v>
+        <v>982</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="E78">
-        <v>0.29279534636743998</v>
+        <v>0.17508501872382401</v>
       </c>
       <c r="F78">
-        <v>0.16836150013989501</v>
+        <v>0.17085664827428901</v>
       </c>
       <c r="G78">
-        <v>0.30929284238864801</v>
+        <v>0.27633684488565302</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="C79">
-        <v>4658</v>
+        <v>983</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="E79">
-        <v>0.55559664832213396</v>
+        <v>0.256257994151742</v>
       </c>
       <c r="F79">
-        <v>0.57057683607531995</v>
+        <v>0.24946055358222699</v>
       </c>
       <c r="G79">
-        <v>0.65035773214895298</v>
+        <v>0.21371927025259599</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>576</v>
       </c>
       <c r="C80">
-        <v>5014</v>
+        <v>4512</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>577</v>
       </c>
       <c r="E80">
-        <v>0.51751101467670102</v>
+        <v>0.15264352339401099</v>
       </c>
       <c r="F80">
-        <v>0.93594958437501496</v>
+        <v>0.11053304462039</v>
       </c>
       <c r="G80">
-        <v>1.1116806935391601</v>
+        <v>0.17699950459173799</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>386</v>
       </c>
       <c r="C81">
-        <v>4933</v>
+        <v>1521</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>387</v>
       </c>
       <c r="E81">
-        <v>0.109249825603564</v>
+        <v>1.0101760666841499</v>
       </c>
       <c r="F81">
-        <v>5.7258202902905002E-2</v>
+        <v>1.8091518133110001</v>
       </c>
       <c r="G81">
-        <v>6.6321825343788998E-2</v>
+        <v>1.7442424559115099</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="C82">
-        <v>531</v>
+        <v>4961</v>
       </c>
       <c r="D82" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="E82">
-        <v>0.104929632715104</v>
+        <v>0.53376744308128998</v>
       </c>
       <c r="F82">
-        <v>0.113770217008964</v>
+        <v>0.21247758043331699</v>
       </c>
       <c r="G82">
-        <v>0.17518542201638199</v>
+        <v>0.22361975442578699</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>588</v>
       </c>
       <c r="C83">
-        <v>4714</v>
+        <v>1522</v>
       </c>
       <c r="D83" t="s">
-        <v>169</v>
+        <v>589</v>
       </c>
       <c r="E83">
-        <v>1.45966342515254</v>
+        <v>0.61751903380565198</v>
       </c>
       <c r="F83">
-        <v>1.04030251366049</v>
+        <v>0.62487973485138704</v>
       </c>
       <c r="G83">
-        <v>0.87926133598075895</v>
+        <v>0.88341155310139996</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>384</v>
       </c>
       <c r="C84">
-        <v>592</v>
+        <v>4144</v>
       </c>
       <c r="D84" t="s">
-        <v>171</v>
+        <v>385</v>
       </c>
       <c r="E84">
-        <v>0.29963233434001901</v>
+        <v>0.54983304167918301</v>
       </c>
       <c r="F84">
-        <v>0.138368060083289</v>
+        <v>2.5001863944526801</v>
       </c>
       <c r="G84">
-        <v>0.23010759842627701</v>
+        <v>2.2076385840991102</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="C85">
-        <v>5170</v>
+        <v>5213</v>
       </c>
       <c r="D85" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="E85">
-        <v>0.98666796085355701</v>
+        <v>1.89906441706244</v>
       </c>
       <c r="F85">
-        <v>0.41871551988559602</v>
+        <v>0.70301710576587095</v>
       </c>
       <c r="G85">
-        <v>0.226164851143076</v>
+        <v>1.0165255913934901</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>510</v>
       </c>
       <c r="C86">
-        <v>5160</v>
+        <v>5120</v>
       </c>
       <c r="D86" t="s">
-        <v>175</v>
+        <v>511</v>
       </c>
       <c r="E86">
-        <v>0.31268566933188202</v>
+        <v>0.295444866781995</v>
       </c>
       <c r="F86">
-        <v>6.9404274359532905E-2</v>
+        <v>0.63012912560535095</v>
       </c>
       <c r="G86">
-        <v>7.8736790192432807E-2</v>
+        <v>0.70242215370329997</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="C87">
-        <v>4392</v>
+        <v>5169</v>
       </c>
       <c r="D87" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="E87">
-        <v>0.72277357268095099</v>
+        <v>0.14306511752182699</v>
       </c>
       <c r="F87">
-        <v>0.315519938816825</v>
+        <v>0.238349900397616</v>
       </c>
       <c r="G87">
-        <v>0.26341825499725402</v>
+        <v>0.289679058347943</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>526</v>
       </c>
       <c r="C88">
-        <v>4666</v>
+        <v>4012</v>
       </c>
       <c r="D88" t="s">
-        <v>179</v>
+        <v>527</v>
       </c>
       <c r="E88">
-        <v>1.0196366444788501</v>
+        <v>1.59737117048222</v>
       </c>
       <c r="F88">
-        <v>0.72038625280759405</v>
+        <v>0.64180369344868804</v>
       </c>
       <c r="G88">
-        <v>0.61340643892503</v>
+        <v>0.52185998842849102</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>87</v>
+        <v>283</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>572</v>
       </c>
       <c r="C89">
-        <v>4920</v>
+        <v>4915</v>
       </c>
       <c r="D89" t="s">
-        <v>181</v>
+        <v>573</v>
       </c>
       <c r="E89">
-        <v>0.55548492244162295</v>
+        <v>1.05899335492291</v>
       </c>
       <c r="F89">
-        <v>0.57001861219404604</v>
+        <v>0.18415110239171101</v>
       </c>
       <c r="G89">
-        <v>0.57718725131249204</v>
+        <v>0.24890026375634999</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>452</v>
       </c>
       <c r="C90">
-        <v>4940</v>
+        <v>565</v>
       </c>
       <c r="D90" t="s">
-        <v>183</v>
+        <v>453</v>
       </c>
       <c r="E90">
-        <v>0.31571056053810698</v>
+        <v>0.15738889026921099</v>
       </c>
       <c r="F90">
-        <v>0.25420719643766698</v>
+        <v>0.19057468985120199</v>
       </c>
       <c r="G90">
-        <v>0.28046336894058599</v>
+        <v>0.17810468185647599</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="C91">
-        <v>4672</v>
+        <v>3460</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="E91">
-        <v>0.76715332774388101</v>
+        <v>2.3463420174484702</v>
       </c>
       <c r="F91">
-        <v>0.20040549235021499</v>
+        <v>2.1719646924324301</v>
       </c>
       <c r="G91">
-        <v>0.234505580022837</v>
+        <v>2.1041609749103398</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="C92">
-        <v>780</v>
+        <v>4975</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E92">
-        <v>0.191284139492129</v>
+        <v>0.20612236136161299</v>
       </c>
       <c r="F92">
-        <v>0.19026316203361901</v>
+        <v>0.186682730987316</v>
       </c>
       <c r="G92">
-        <v>0.20623793971066701</v>
+        <v>0.221112941443872</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>326</v>
       </c>
       <c r="C93">
-        <v>590</v>
+        <v>61</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>327</v>
       </c>
       <c r="E93">
-        <v>0.18870612927942601</v>
+        <v>0.17530094094495</v>
       </c>
       <c r="F93">
-        <v>0.15933683152379799</v>
+        <v>0.16654993163822801</v>
       </c>
       <c r="G93">
-        <v>0.16600548821826999</v>
+        <v>0.29553311034825303</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="C94">
-        <v>5161</v>
+        <v>71</v>
       </c>
       <c r="D94" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="E94">
-        <v>2.0430356860709402</v>
+        <v>0.13920901471952599</v>
       </c>
       <c r="F94">
-        <v>0.62012059408172204</v>
+        <v>7.7126452337318199E-2</v>
       </c>
       <c r="G94">
-        <v>0.20559443630483301</v>
+        <v>0.200607112298919</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="C95">
-        <v>4540</v>
+        <v>62</v>
       </c>
       <c r="D95" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="E95">
-        <v>0.53402719331335502</v>
+        <v>0.38418779870018199</v>
       </c>
       <c r="F95">
-        <v>9.9644956047612601E-2</v>
+        <v>0.176993070464738</v>
       </c>
       <c r="G95">
-        <v>0.13188627554142399</v>
+        <v>0.13999850142461601</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="C96">
-        <v>4913</v>
+        <v>4664</v>
       </c>
       <c r="D96" t="s">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="E96">
-        <v>0.21725539462711699</v>
+        <v>1.1250294611068901</v>
       </c>
       <c r="F96">
-        <v>0.99189536819836099</v>
+        <v>0.32320261993334198</v>
       </c>
       <c r="G96">
-        <v>1.2647201786581601</v>
+        <v>0.52247331313816803</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C97">
-        <v>5212</v>
+        <v>4666</v>
       </c>
       <c r="D97" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E97">
-        <v>1.03717809082318</v>
+        <v>1.0196366444788501</v>
       </c>
       <c r="F97">
-        <v>0.19917815817644299</v>
+        <v>0.72038625280759405</v>
       </c>
       <c r="G97">
-        <v>0.179109288068006</v>
+        <v>0.61340643892503</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>96</v>
+        <v>284</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>574</v>
       </c>
       <c r="C98">
-        <v>5211</v>
+        <v>4216</v>
       </c>
       <c r="D98" t="s">
-        <v>199</v>
+        <v>575</v>
       </c>
       <c r="E98">
-        <v>2.70331429847116</v>
+        <v>0.36291517793310601</v>
       </c>
       <c r="F98">
-        <v>0.75334863424217902</v>
+        <v>0.17237207785553199</v>
       </c>
       <c r="G98">
-        <v>0.23345738553068501</v>
+        <v>0.18620937592328601</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C99">
-        <v>4371</v>
+        <v>5418</v>
       </c>
       <c r="D99" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="E99">
-        <v>1.03797623052338</v>
+        <v>1.1755750269048</v>
       </c>
       <c r="F99">
-        <v>0.57160642993120103</v>
+        <v>0.35797480412020399</v>
       </c>
       <c r="G99">
-        <v>0.62626882760013103</v>
+        <v>0.302463515012735</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>98</v>
+        <v>286</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>578</v>
       </c>
       <c r="C100">
-        <v>5164</v>
+        <v>4510</v>
       </c>
       <c r="D100" t="s">
-        <v>203</v>
+        <v>579</v>
       </c>
       <c r="E100">
-        <v>1.1324357077946201</v>
+        <v>1.1144870413783301</v>
       </c>
       <c r="F100">
-        <v>0.197323179725684</v>
+        <v>2.64936688234038</v>
       </c>
       <c r="G100">
-        <v>0.106659722307098</v>
+        <v>3.3707308636155702</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="C101">
-        <v>4146</v>
+        <v>790</v>
       </c>
       <c r="D101" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="E101">
-        <v>0.17129100112742099</v>
+        <v>0.25445057324494402</v>
       </c>
       <c r="F101">
-        <v>8.7142260895524695E-2</v>
+        <v>0.16628624546165299</v>
       </c>
       <c r="G101">
-        <v>0.16857931132977799</v>
+        <v>0.17252123915913201</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="C102">
-        <v>4122</v>
+        <v>4068</v>
       </c>
       <c r="D102" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="E102">
-        <v>0.868957005916981</v>
+        <v>2.4062966973495801</v>
       </c>
       <c r="F102">
-        <v>0.33050055919026899</v>
+        <v>2.9237195071339399</v>
       </c>
       <c r="G102">
-        <v>0.171938005352677</v>
+        <v>2.2694894600114899</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>364</v>
       </c>
       <c r="C103">
-        <v>5167</v>
+        <v>51</v>
       </c>
       <c r="D103" t="s">
-        <v>209</v>
+        <v>365</v>
       </c>
       <c r="E103">
-        <v>1.0155446522649001</v>
+        <v>0.27979798634818798</v>
       </c>
       <c r="F103">
-        <v>0.31092320914687099</v>
+        <v>0.95356744260385495</v>
       </c>
       <c r="G103">
-        <v>0.28304853434795602</v>
+        <v>1.04429636349022</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>368</v>
       </c>
       <c r="C104">
-        <v>562</v>
+        <v>4727</v>
       </c>
       <c r="D104" t="s">
-        <v>211</v>
+        <v>369</v>
       </c>
       <c r="E104">
-        <v>1.09012627764726</v>
+        <v>0.10725591139285801</v>
       </c>
       <c r="F104">
-        <v>0.88662478060870797</v>
+        <v>0.22785188065025999</v>
       </c>
       <c r="G104">
-        <v>0.36121476224147703</v>
+        <v>0.29790067233852002</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>562</v>
       </c>
       <c r="C105">
-        <v>4935</v>
+        <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>213</v>
+        <v>563</v>
       </c>
       <c r="E105">
-        <v>3.0606776342484601</v>
+        <v>0.26035294124220398</v>
       </c>
       <c r="F105">
-        <v>0.75885979711088403</v>
+        <v>0.418142626370549</v>
       </c>
       <c r="G105">
-        <v>0.240595429324726</v>
+        <v>0.43302461912777102</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C106">
-        <v>240</v>
+        <v>4540</v>
       </c>
       <c r="D106" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="E106">
-        <v>0.26781215875859299</v>
+        <v>0.53402719331335502</v>
       </c>
       <c r="F106">
-        <v>0.138972177443558</v>
+        <v>9.9644956047612601E-2</v>
       </c>
       <c r="G106">
-        <v>9.7032943886583595E-2</v>
+        <v>0.13188627554142399</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="C107">
-        <v>5200</v>
+        <v>4971</v>
       </c>
       <c r="D107" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="E107">
-        <v>1.8651974350935501</v>
+        <v>0.54662635217858302</v>
       </c>
       <c r="F107">
-        <v>1.39825073804188</v>
+        <v>0.33967230679405402</v>
       </c>
       <c r="G107">
-        <v>1.70460172581465</v>
+        <v>0.19177608204574501</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>582</v>
       </c>
       <c r="C108">
-        <v>480</v>
+        <v>5226</v>
       </c>
       <c r="D108" t="s">
-        <v>219</v>
+        <v>583</v>
       </c>
       <c r="E108">
-        <v>0.101012429260758</v>
+        <v>1.70075007194489</v>
       </c>
       <c r="F108">
-        <v>8.1364291458473403E-2</v>
+        <v>0.67319626699768198</v>
       </c>
       <c r="G108">
-        <v>0.17081875984532699</v>
+        <v>1.00371806188181</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="C109">
-        <v>4150</v>
+        <v>5214</v>
       </c>
       <c r="D109" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="E109">
-        <v>2.3765400258809901</v>
+        <v>0.78328083924082104</v>
       </c>
       <c r="F109">
-        <v>2.69159084477212</v>
+        <v>0.82984157296135297</v>
       </c>
       <c r="G109">
-        <v>3.1302080044004099</v>
+        <v>0.837702082274421</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="C110">
-        <v>5034</v>
+        <v>4922</v>
       </c>
       <c r="D110" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="E110">
-        <v>1.7134106737368999</v>
+        <v>4.0472689407362097</v>
       </c>
       <c r="F110">
-        <v>0.41461227578692</v>
+        <v>3.1951315643420299</v>
       </c>
       <c r="G110">
-        <v>0.29282012116447098</v>
+        <v>2.60828651368243</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="C111">
-        <v>4750</v>
+        <v>4724</v>
       </c>
       <c r="D111" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="E111">
-        <v>0.50219702284200696</v>
+        <v>0.54870576155481399</v>
       </c>
       <c r="F111">
-        <v>0.25975537700386198</v>
+        <v>0.416377868329324</v>
       </c>
       <c r="G111">
-        <v>0.12459943930853</v>
+        <v>0.58124947031585095</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C112">
-        <v>4137</v>
+        <v>480</v>
       </c>
       <c r="D112" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E112">
-        <v>0.847107411139842</v>
+        <v>0.101012429260758</v>
       </c>
       <c r="F112">
-        <v>0.57714577750492602</v>
+        <v>8.1364291458473403E-2</v>
       </c>
       <c r="G112">
-        <v>0.548755654169925</v>
+        <v>0.17081875984532699</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B113" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="C113">
-        <v>5203</v>
+        <v>561</v>
       </c>
       <c r="D113" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="E113">
-        <v>1.4407864611835399</v>
+        <v>0.180613178474891</v>
       </c>
       <c r="F113">
-        <v>0.32107779687679999</v>
+        <v>0.391101040811416</v>
       </c>
       <c r="G113">
-        <v>0.31372108011691202</v>
+        <v>0.80366135349574097</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C114">
-        <v>3320</v>
+        <v>564</v>
       </c>
       <c r="D114" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E114">
-        <v>0.29694673245346198</v>
+        <v>0.14150343534287799</v>
       </c>
       <c r="F114">
-        <v>0.13720754823586301</v>
+        <v>0.19828450959197799</v>
       </c>
       <c r="G114">
-        <v>0.33199882957860399</v>
+        <v>0.38099532654322299</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>430</v>
       </c>
       <c r="C115">
-        <v>564</v>
+        <v>260</v>
       </c>
       <c r="D115" t="s">
-        <v>233</v>
+        <v>431</v>
       </c>
       <c r="E115">
-        <v>0.14150343534287799</v>
+        <v>0.75285355124448305</v>
       </c>
       <c r="F115">
-        <v>0.19828450959197799</v>
+        <v>0.18164284883537299</v>
       </c>
       <c r="G115">
-        <v>0.38099532654322299</v>
+        <v>0.49564072629781097</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>382</v>
       </c>
       <c r="C116">
-        <v>4961</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>235</v>
+        <v>383</v>
       </c>
       <c r="E116">
-        <v>0.53376744308128998</v>
+        <v>0.33924944144010899</v>
       </c>
       <c r="F116">
-        <v>0.21247758043331699</v>
+        <v>0.75362992759636704</v>
       </c>
       <c r="G116">
-        <v>0.22361975442578699</v>
+        <v>1.1604500400025799</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="C117">
-        <v>220</v>
+        <v>532</v>
       </c>
       <c r="D117" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="E117">
-        <v>0.48247290499175</v>
+        <v>0.27736448142959302</v>
       </c>
       <c r="F117">
-        <v>0.17850582983263499</v>
+        <v>0.107017223285387</v>
       </c>
       <c r="G117">
-        <v>0.279009355482294</v>
+        <v>0.18929235757371801</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="C118">
-        <v>5168</v>
+        <v>531</v>
       </c>
       <c r="D118" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="E118">
-        <v>4.0760524487499901E-2</v>
+        <v>0.104929632715104</v>
       </c>
       <c r="F118">
-        <v>8.5851749256402404E-2</v>
+        <v>0.113770217008964</v>
       </c>
       <c r="G118">
-        <v>0.107211769120927</v>
+        <v>0.17518542201638199</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="B119" t="s">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="C119">
-        <v>4061</v>
+        <v>604</v>
       </c>
       <c r="D119" t="s">
-        <v>241</v>
+        <v>65</v>
       </c>
       <c r="E119">
-        <v>0.74969997661833099</v>
+        <v>0.134728141543762</v>
       </c>
       <c r="F119">
-        <v>3.73846669632935</v>
+        <v>0.123815279709273</v>
       </c>
       <c r="G119">
-        <v>4.65518642087609</v>
+        <v>0.22170747644018099</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="B120" t="s">
-        <v>242</v>
+        <v>372</v>
       </c>
       <c r="C120">
-        <v>982</v>
+        <v>603</v>
       </c>
       <c r="D120" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="E120">
-        <v>0.17508501872382401</v>
+        <v>9.4094636769751397E-2</v>
       </c>
       <c r="F120">
-        <v>0.17085664827428901</v>
+        <v>0.120716349928276</v>
       </c>
       <c r="G120">
-        <v>0.27633684488565302</v>
+        <v>0.18748799476458899</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="B121" t="s">
-        <v>244</v>
+        <v>544</v>
       </c>
       <c r="C121">
-        <v>5412</v>
+        <v>601</v>
       </c>
       <c r="D121" t="s">
-        <v>245</v>
+        <v>545</v>
       </c>
       <c r="E121">
-        <v>1.0671790191633299</v>
+        <v>9.8592761611021207E-2</v>
       </c>
       <c r="F121">
-        <v>0.62095047628529298</v>
+        <v>0.12905953437574799</v>
       </c>
       <c r="G121">
-        <v>0.28944864293763101</v>
+        <v>0.14273216520448301</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="B122" t="s">
-        <v>246</v>
+        <v>412</v>
       </c>
       <c r="C122">
-        <v>4924</v>
+        <v>563</v>
       </c>
       <c r="D122" t="s">
-        <v>247</v>
+        <v>413</v>
       </c>
       <c r="E122">
-        <v>0.51938185122557901</v>
+        <v>3.8459515442767801E-2</v>
       </c>
       <c r="F122">
-        <v>0.70654810428238302</v>
+        <v>6.4549376743723894E-2</v>
       </c>
       <c r="G122">
-        <v>0.99704296008726701</v>
+        <v>0.11108894083335601</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="B123" t="s">
-        <v>248</v>
+        <v>398</v>
       </c>
       <c r="C123">
-        <v>5143</v>
+        <v>630</v>
       </c>
       <c r="D123" t="s">
-        <v>249</v>
+        <v>399</v>
       </c>
       <c r="E123">
-        <v>0.29812211140247502</v>
+        <v>0.157968560778603</v>
       </c>
       <c r="F123">
-        <v>0.30651755909988898</v>
+        <v>0.105831992774546</v>
       </c>
       <c r="G123">
-        <v>0.27511853699507399</v>
+        <v>0.158620708751185</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="C124">
-        <v>4960</v>
+        <v>4929</v>
       </c>
       <c r="D124" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="E124">
-        <v>1.2098842038487001</v>
+        <v>1.45852356032437</v>
       </c>
       <c r="F124">
-        <v>0.39345863280367099</v>
+        <v>0.27648592812426198</v>
       </c>
       <c r="G124">
-        <v>0.41167784817973702</v>
+        <v>0.19312031765101101</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>5162</v>
+        <v>4912</v>
       </c>
       <c r="D125" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="E125">
-        <v>0.17291263488117301</v>
+        <v>2.6330940356755299</v>
       </c>
       <c r="F125">
-        <v>0.13104318238608501</v>
+        <v>0.66809684218046395</v>
       </c>
       <c r="G125">
-        <v>0.109422044154008</v>
+        <v>0.39344852569966998</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="C126">
-        <v>730</v>
+        <v>5332</v>
       </c>
       <c r="D126" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E126">
-        <v>0.135116153412778</v>
+        <v>0.28328997574322901</v>
       </c>
       <c r="F126">
-        <v>0.155907925584509</v>
+        <v>0.20023789554858101</v>
       </c>
       <c r="G126">
-        <v>0.18082434169445899</v>
+        <v>0.241377193580426</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B127" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="C127">
-        <v>5030</v>
+        <v>4935</v>
       </c>
       <c r="D127" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="E127">
-        <v>0.37145342908468998</v>
+        <v>3.0606776342484601</v>
       </c>
       <c r="F127">
-        <v>0.18590153674044099</v>
+        <v>0.75885979711088403</v>
       </c>
       <c r="G127">
-        <v>0.226313615383537</v>
+        <v>0.240595429324726</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="C128">
-        <v>750</v>
+        <v>4340</v>
       </c>
       <c r="D128" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="E128">
-        <v>0.401223674309588</v>
+        <v>0.80746814658710797</v>
       </c>
       <c r="F128">
-        <v>0.16113634217151501</v>
+        <v>0.22665319561222999</v>
       </c>
       <c r="G128">
-        <v>0.36745605302124401</v>
+        <v>0.13415037820745199</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B129" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="C129">
-        <v>4623</v>
+        <v>5161</v>
       </c>
       <c r="D129" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="E129">
-        <v>0.80684079493891803</v>
+        <v>2.0430356860709402</v>
       </c>
       <c r="F129">
-        <v>0.41528891784286998</v>
+        <v>0.62012059408172204</v>
       </c>
       <c r="G129">
-        <v>0.21894736340659901</v>
+        <v>0.20559443630483301</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="C130">
-        <v>650</v>
+        <v>5160</v>
       </c>
       <c r="D130" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="E130">
-        <v>0.34705433785579698</v>
+        <v>0.31268566933188202</v>
       </c>
       <c r="F130">
-        <v>9.3385285037702201E-2</v>
+        <v>6.9404274359532905E-2</v>
       </c>
       <c r="G130">
-        <v>0.29874268832620599</v>
+        <v>7.8736790192432807E-2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>264</v>
+        <v>6</v>
       </c>
       <c r="C131">
-        <v>5010</v>
+        <v>5225</v>
       </c>
       <c r="D131" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="E131">
-        <v>0.71564059150381898</v>
+        <v>0.82899677691999896</v>
       </c>
       <c r="F131">
-        <v>0.91605273618183802</v>
+        <v>1.21023405140538</v>
       </c>
       <c r="G131">
-        <v>1.1245632018196601</v>
+        <v>1.25601422517016</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B132" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="C132">
-        <v>5031</v>
+        <v>5168</v>
       </c>
       <c r="D132" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="E132">
-        <v>1.5367818183426301</v>
+        <v>4.0760524487499901E-2</v>
       </c>
       <c r="F132">
-        <v>1.08206093700259</v>
+        <v>8.5851749256402404E-2</v>
       </c>
       <c r="G132">
-        <v>0.90973509578841305</v>
+        <v>0.107211769120927</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="C133">
-        <v>71</v>
+        <v>4066</v>
       </c>
       <c r="D133" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="E133">
-        <v>0.13920901471952599</v>
+        <v>2.3067997671865301</v>
       </c>
       <c r="F133">
-        <v>7.7126452337318199E-2</v>
+        <v>2.3963843468908399</v>
       </c>
       <c r="G133">
-        <v>0.200607112298919</v>
+        <v>1.0085725580051199</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="B134" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="C134">
-        <v>561</v>
+        <v>4390</v>
       </c>
       <c r="D134" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="E134">
-        <v>0.180613178474891</v>
+        <v>1.37059224690537</v>
       </c>
       <c r="F134">
-        <v>0.391101040811416</v>
+        <v>1.3396845126630701</v>
       </c>
       <c r="G134">
-        <v>0.80366135349574097</v>
+        <v>1.18337544235166</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="C135">
-        <v>4614</v>
+        <v>4392</v>
       </c>
       <c r="D135" t="s">
-        <v>273</v>
+        <v>177</v>
       </c>
       <c r="E135">
-        <v>0.163236472626831</v>
+        <v>0.72277357268095099</v>
       </c>
       <c r="F135">
-        <v>0.130792008019885</v>
+        <v>0.315519938816825</v>
       </c>
       <c r="G135">
-        <v>0.208239965629476</v>
+        <v>0.26341825499725402</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>374</v>
       </c>
       <c r="C136">
-        <v>4971</v>
+        <v>340</v>
       </c>
       <c r="D136" t="s">
-        <v>275</v>
+        <v>375</v>
       </c>
       <c r="E136">
-        <v>0.54662635217858302</v>
+        <v>0.26983465121990802</v>
       </c>
       <c r="F136">
-        <v>0.33967230679405402</v>
+        <v>0.168807855915802</v>
       </c>
       <c r="G136">
-        <v>0.19177608204574501</v>
+        <v>0.35118337144596801</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="C137">
-        <v>4215</v>
+        <v>3440</v>
       </c>
       <c r="D137" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="E137">
-        <v>0.32157656670227702</v>
+        <v>1.8702114695787</v>
       </c>
       <c r="F137">
-        <v>3.1653664109593902</v>
+        <v>0.50552087858619499</v>
       </c>
       <c r="G137">
-        <v>4.8002162861605804</v>
+        <v>0.31839519556740198</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>136</v>
+        <v>255</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>516</v>
       </c>
       <c r="C138">
-        <v>4080</v>
+        <v>5163</v>
       </c>
       <c r="D138" t="s">
-        <v>279</v>
+        <v>517</v>
       </c>
       <c r="E138">
-        <v>1.0132868397678201</v>
+        <v>0.67399168892771899</v>
       </c>
       <c r="F138">
-        <v>0.29847865202838098</v>
+        <v>0.271038769080516</v>
       </c>
       <c r="G138">
-        <v>0.178678641040628</v>
+        <v>0.462037128059547</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B139" t="s">
-        <v>280</v>
+        <v>172</v>
       </c>
       <c r="C139">
-        <v>5231</v>
+        <v>5170</v>
       </c>
       <c r="D139" t="s">
-        <v>281</v>
+        <v>173</v>
       </c>
       <c r="E139">
-        <v>0.99931511297800901</v>
+        <v>0.98666796085355701</v>
       </c>
       <c r="F139">
-        <v>0.20900962287497199</v>
+        <v>0.41871551988559602</v>
       </c>
       <c r="G139">
-        <v>0.16634429994185901</v>
+        <v>0.226164851143076</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="B140" t="s">
-        <v>282</v>
+        <v>402</v>
       </c>
       <c r="C140">
-        <v>5166</v>
+        <v>5165</v>
       </c>
       <c r="D140" t="s">
-        <v>283</v>
+        <v>403</v>
       </c>
       <c r="E140">
-        <v>1.96538150679257</v>
+        <v>1.2101131217754499</v>
       </c>
       <c r="F140">
-        <v>1.2128215255094399</v>
+        <v>0.25633924895563998</v>
       </c>
       <c r="G140">
-        <v>0.84531469337405296</v>
+        <v>0.168814876687471</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C141">
-        <v>790</v>
+        <v>5166</v>
       </c>
       <c r="D141" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E141">
-        <v>0.25445057324494402</v>
+        <v>1.96538150679257</v>
       </c>
       <c r="F141">
-        <v>0.16628624546165299</v>
+        <v>1.2128215255094399</v>
       </c>
       <c r="G141">
-        <v>0.17252123915913201</v>
+        <v>0.84531469337405296</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="B142" t="s">
-        <v>286</v>
+        <v>422</v>
       </c>
       <c r="C142">
-        <v>983</v>
+        <v>5016</v>
       </c>
       <c r="D142" t="s">
-        <v>287</v>
+        <v>423</v>
       </c>
       <c r="E142">
-        <v>0.256257994151742</v>
+        <v>0.84000582902588805</v>
       </c>
       <c r="F142">
-        <v>0.24946055358222699</v>
+        <v>1.49544589344405</v>
       </c>
       <c r="G142">
-        <v>0.21371927025259599</v>
+        <v>1.07090511801916</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>288</v>
+        <v>48</v>
       </c>
       <c r="C143">
-        <v>4721</v>
+        <v>5410</v>
       </c>
       <c r="D143" t="s">
-        <v>289</v>
+        <v>49</v>
       </c>
       <c r="E143">
-        <v>0.103120179093242</v>
+        <v>0.36562377842778898</v>
       </c>
       <c r="F143">
-        <v>0.14989305640630499</v>
+        <v>0.25353063025373501</v>
       </c>
       <c r="G143">
-        <v>0.142310115795554</v>
+        <v>0.34027429355369998</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>142</v>
+        <v>275</v>
       </c>
       <c r="B144" t="s">
-        <v>290</v>
+        <v>556</v>
       </c>
       <c r="C144">
-        <v>4218</v>
+        <v>4657</v>
       </c>
       <c r="D144" t="s">
-        <v>291</v>
+        <v>557</v>
       </c>
       <c r="E144">
-        <v>2.95204474478385</v>
+        <v>0.13406519171960801</v>
       </c>
       <c r="F144">
-        <v>4.9819039530800904</v>
+        <v>0.41956786452210398</v>
       </c>
       <c r="G144">
-        <v>4.2017616844030599</v>
+        <v>0.434199711992314</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="B145" t="s">
-        <v>292</v>
+        <v>362</v>
       </c>
       <c r="C145">
-        <v>4530</v>
+        <v>5321</v>
       </c>
       <c r="D145" t="s">
-        <v>293</v>
+        <v>363</v>
       </c>
       <c r="E145">
-        <v>1.3710896922937601</v>
+        <v>0.204666755682445</v>
       </c>
       <c r="F145">
-        <v>1.0661068105196601</v>
+        <v>9.8307181719133704E-2</v>
       </c>
       <c r="G145">
-        <v>0.70058841740187605</v>
+        <v>0.171687029559878</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="B146" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="C146">
-        <v>4340</v>
+        <v>4750</v>
       </c>
       <c r="D146" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="E146">
-        <v>0.80746814658710797</v>
+        <v>0.50219702284200696</v>
       </c>
       <c r="F146">
-        <v>0.22665319561222999</v>
+        <v>0.25975537700386198</v>
       </c>
       <c r="G146">
-        <v>0.13415037820745199</v>
+        <v>0.12459943930853</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="B147" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="C147">
-        <v>4725</v>
+        <v>5164</v>
       </c>
       <c r="D147" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="E147">
-        <v>0.91215831549437099</v>
+        <v>1.1324357077946201</v>
       </c>
       <c r="F147">
-        <v>0.37690773863114302</v>
+        <v>0.197323179725684</v>
       </c>
       <c r="G147">
-        <v>0.41456409192405003</v>
+        <v>0.106659722307098</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="B148" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="C148">
-        <v>4740</v>
+        <v>562</v>
       </c>
       <c r="D148" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="E148">
-        <v>0.77805844826657899</v>
+        <v>1.09012627764726</v>
       </c>
       <c r="F148">
-        <v>0.26043532348057002</v>
+        <v>0.88662478060870797</v>
       </c>
       <c r="G148">
-        <v>0.24647992911569599</v>
+        <v>0.36121476224147703</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="C149">
-        <v>4152</v>
+        <v>4931</v>
       </c>
       <c r="D149" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="E149">
-        <v>1.23356520955113</v>
+        <v>1.1234673720564501</v>
       </c>
       <c r="F149">
-        <v>2.4602602762809198</v>
+        <v>0.99916814831127199</v>
       </c>
       <c r="G149">
-        <v>2.2656899670107</v>
+        <v>1.13289467183354</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="B150" t="s">
-        <v>302</v>
+        <v>592</v>
       </c>
       <c r="C150">
-        <v>3460</v>
+        <v>4911</v>
       </c>
       <c r="D150" t="s">
-        <v>303</v>
+        <v>593</v>
       </c>
       <c r="E150">
-        <v>2.3463420174484702</v>
+        <v>0.75848705695671703</v>
       </c>
       <c r="F150">
-        <v>2.1719646924324301</v>
+        <v>0.29514743081314998</v>
       </c>
       <c r="G150">
-        <v>2.1041609749103398</v>
+        <v>0.21403802140220499</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B151" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="C151">
-        <v>5214</v>
+        <v>4910</v>
       </c>
       <c r="D151" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="E151">
-        <v>0.78328083924082104</v>
+        <v>2.2783218109064598</v>
       </c>
       <c r="F151">
-        <v>0.82984157296135297</v>
+        <v>0.97667445764345595</v>
       </c>
       <c r="G151">
-        <v>0.837702082274421</v>
+        <v>0.59441101900483595</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="B152" t="s">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="C152">
-        <v>440</v>
+        <v>4672</v>
       </c>
       <c r="D152" t="s">
-        <v>307</v>
+        <v>185</v>
       </c>
       <c r="E152">
-        <v>0.39962795583641703</v>
+        <v>0.76715332774388101</v>
       </c>
       <c r="F152">
-        <v>0.16654734160068099</v>
+        <v>0.20040549235021499</v>
       </c>
       <c r="G152">
-        <v>0.26940259395314797</v>
+        <v>0.234505580022837</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>370</v>
       </c>
       <c r="C153">
-        <v>4020</v>
+        <v>4630</v>
       </c>
       <c r="D153" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="E153">
-        <v>0.99610231648172198</v>
+        <v>1.66467901514079</v>
       </c>
       <c r="F153">
-        <v>0.49816001325848303</v>
+        <v>0.33988510829556101</v>
       </c>
       <c r="G153">
-        <v>0.54855235927412105</v>
+        <v>0.14713949361761899</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="C154">
-        <v>4514</v>
+        <v>5167</v>
       </c>
       <c r="D154" t="s">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="E154">
-        <v>0.71994382182276495</v>
+        <v>1.0155446522649001</v>
       </c>
       <c r="F154">
-        <v>1.0653799816389999</v>
+        <v>0.31092320914687099</v>
       </c>
       <c r="G154">
-        <v>0.92949639809264495</v>
+        <v>0.28304853434795602</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="B155" t="s">
-        <v>312</v>
+        <v>470</v>
       </c>
       <c r="C155">
-        <v>4613</v>
+        <v>5134</v>
       </c>
       <c r="D155" t="s">
-        <v>313</v>
+        <v>471</v>
       </c>
       <c r="E155">
-        <v>1.11273916723021</v>
+        <v>1.3621342263793199</v>
       </c>
       <c r="F155">
-        <v>0.62621339460768799</v>
+        <v>1.6492201978458401</v>
       </c>
       <c r="G155">
-        <v>0.42274243620256302</v>
+        <v>1.4447455001263001</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C156">
-        <v>250</v>
+        <v>5140</v>
       </c>
       <c r="D156" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E156">
-        <v>0.17134736548485499</v>
+        <v>0.45126227972584498</v>
       </c>
       <c r="F156">
-        <v>9.2675936445060794E-2</v>
+        <v>0.71855965451890003</v>
       </c>
       <c r="G156">
-        <v>0.28790281336065299</v>
+        <v>0.60564512140790705</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B157" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="C157">
-        <v>4217</v>
+        <v>4670</v>
       </c>
       <c r="D157" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="E157">
-        <v>1.6633105483088599</v>
+        <v>0.24779240797079699</v>
       </c>
       <c r="F157">
-        <v>1.2030094625507399</v>
+        <v>0.171770614865174</v>
       </c>
       <c r="G157">
-        <v>0.79649618175234405</v>
+        <v>0.16198059226536299</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="B158" t="s">
-        <v>318</v>
+        <v>90</v>
       </c>
       <c r="C158">
-        <v>4934</v>
+        <v>591</v>
       </c>
       <c r="D158" t="s">
-        <v>319</v>
+        <v>91</v>
       </c>
       <c r="E158">
-        <v>0.87873985528339604</v>
+        <v>0.249515558976836</v>
       </c>
       <c r="F158">
-        <v>0.976584166047057</v>
+        <v>0.20164244768393</v>
       </c>
       <c r="G158">
-        <v>0.94296674999122598</v>
+        <v>0.193215100327807</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="B159" t="s">
-        <v>320</v>
+        <v>504</v>
       </c>
       <c r="C159">
-        <v>5140</v>
+        <v>5417</v>
       </c>
       <c r="D159" t="s">
-        <v>321</v>
+        <v>505</v>
       </c>
       <c r="E159">
-        <v>0.45126227972584498</v>
+        <v>1.62896851238905</v>
       </c>
       <c r="F159">
-        <v>0.71855965451890003</v>
+        <v>0.35641422857264898</v>
       </c>
       <c r="G159">
-        <v>0.60564512140790705</v>
+        <v>0.28859264796311901</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="C160">
-        <v>4919</v>
+        <v>785</v>
       </c>
       <c r="D160" t="s">
-        <v>323</v>
+        <v>21</v>
       </c>
       <c r="E160">
-        <v>2.1528546556308199</v>
+        <v>0.24444176004617499</v>
       </c>
       <c r="F160">
-        <v>1.3959262619455399</v>
+        <v>0.159066971338198</v>
       </c>
       <c r="G160">
-        <v>0.64789024811826301</v>
+        <v>0.25666019375475502</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="B161" t="s">
-        <v>324</v>
+        <v>522</v>
       </c>
       <c r="C161">
-        <v>4550</v>
+        <v>4211</v>
       </c>
       <c r="D161" t="s">
-        <v>325</v>
+        <v>523</v>
       </c>
       <c r="E161">
-        <v>1.2665531251236899</v>
+        <v>1.3370731187430001</v>
       </c>
       <c r="F161">
-        <v>1.76569918185596</v>
+        <v>2.0582066524019602</v>
       </c>
       <c r="G161">
-        <v>2.1023206081358699</v>
+        <v>1.7804439493867801</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="B162" t="s">
-        <v>326</v>
+        <v>550</v>
       </c>
       <c r="C162">
-        <v>61</v>
+        <v>4213</v>
       </c>
       <c r="D162" t="s">
-        <v>327</v>
+        <v>551</v>
       </c>
       <c r="E162">
-        <v>0.17530094094495</v>
+        <v>0.52314321113182405</v>
       </c>
       <c r="F162">
-        <v>0.16654993163822801</v>
+        <v>1.4082286539164499</v>
       </c>
       <c r="G162">
-        <v>0.29553311034825303</v>
+        <v>1.5788375997647099</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="B163" t="s">
-        <v>328</v>
+        <v>434</v>
       </c>
       <c r="C163">
-        <v>532</v>
+        <v>4730</v>
       </c>
       <c r="D163" t="s">
-        <v>329</v>
+        <v>435</v>
       </c>
       <c r="E163">
-        <v>0.27736448142959302</v>
+        <v>0.93056974157161298</v>
       </c>
       <c r="F163">
-        <v>0.107017223285387</v>
+        <v>1.22647230764719</v>
       </c>
       <c r="G163">
-        <v>0.18929235757371801</v>
+        <v>1.30044535474958</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="B164" t="s">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="C164">
-        <v>4742</v>
+        <v>4720</v>
       </c>
       <c r="D164" t="s">
-        <v>331</v>
+        <v>439</v>
       </c>
       <c r="E164">
-        <v>0.228901432994187</v>
+        <v>4.8875328007900203</v>
       </c>
       <c r="F164">
-        <v>0.155506771466706</v>
+        <v>2.5236125587359801</v>
       </c>
       <c r="G164">
-        <v>0.18337280617381699</v>
+        <v>1.4322513375417401</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
       <c r="C165">
-        <v>4261</v>
+        <v>310</v>
       </c>
       <c r="D165" t="s">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="E165">
-        <v>0.65872447705697701</v>
+        <v>1.00006950886219</v>
       </c>
       <c r="F165">
-        <v>0.243707133720303</v>
+        <v>1.0943902820350899</v>
       </c>
       <c r="G165">
-        <v>0.144521603913048</v>
+        <v>1.3171758165295999</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="B166" t="s">
-        <v>334</v>
+        <v>462</v>
       </c>
       <c r="C166">
-        <v>4910</v>
+        <v>5144</v>
       </c>
       <c r="D166" t="s">
-        <v>335</v>
+        <v>463</v>
       </c>
       <c r="E166">
-        <v>2.2783218109064598</v>
+        <v>0.25485150300494502</v>
       </c>
       <c r="F166">
-        <v>0.97667445764345595</v>
+        <v>0.156745117340921</v>
       </c>
       <c r="G166">
-        <v>0.59441101900483595</v>
+        <v>0.18013190022766101</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="B167" t="s">
-        <v>336</v>
+        <v>566</v>
       </c>
       <c r="C167">
-        <v>4015</v>
+        <v>515</v>
       </c>
       <c r="D167" t="s">
-        <v>337</v>
+        <v>567</v>
       </c>
       <c r="E167">
-        <v>0.68573762500852797</v>
+        <v>9.1074230342486698E-2</v>
       </c>
       <c r="F167">
-        <v>0.75609763163344401</v>
+        <v>8.78376039037842E-2</v>
       </c>
       <c r="G167">
-        <v>0.96748850276043297</v>
+        <v>0.12148878596151</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="B168" t="s">
-        <v>338</v>
+        <v>604</v>
       </c>
       <c r="C168">
-        <v>5208</v>
+        <v>4010</v>
       </c>
       <c r="D168" t="s">
-        <v>339</v>
+        <v>605</v>
       </c>
       <c r="E168">
-        <v>0.62557841864014996</v>
+        <v>2.8282197819864199</v>
       </c>
       <c r="F168">
-        <v>8.8445048688973599E-2</v>
+        <v>2.1345787813419999</v>
       </c>
       <c r="G168">
-        <v>9.4136816277279795E-2</v>
+        <v>2.4263421845022499</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="B169" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="C169">
-        <v>4914</v>
+        <v>5162</v>
       </c>
       <c r="D169" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="E169">
-        <v>1.6692711179984301</v>
+        <v>0.17291263488117301</v>
       </c>
       <c r="F169">
-        <v>5.5074145723255699</v>
+        <v>0.13104318238608501</v>
       </c>
       <c r="G169">
-        <v>5.2383393685791297</v>
+        <v>0.109422044154008</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>342</v>
+        <v>84</v>
       </c>
       <c r="C170">
-        <v>4130</v>
+        <v>4916</v>
       </c>
       <c r="D170" t="s">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="E170">
-        <v>0.33988819295429801</v>
+        <v>2.9120327856160699</v>
       </c>
       <c r="F170">
-        <v>0.17166842994947501</v>
+        <v>1.18734135401603</v>
       </c>
       <c r="G170">
-        <v>0.22701528740507801</v>
+        <v>0.76127466270303301</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>344</v>
+        <v>14</v>
       </c>
       <c r="C171">
-        <v>640</v>
+        <v>5218</v>
       </c>
       <c r="D171" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="E171">
-        <v>0.29737870079043699</v>
+        <v>0.78481573578298602</v>
       </c>
       <c r="F171">
-        <v>0.59678719287168402</v>
+        <v>0.98088841631944601</v>
       </c>
       <c r="G171">
-        <v>1.4430662673027499</v>
+        <v>1.2730214070988599</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B172" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="C172">
-        <v>450</v>
+        <v>980</v>
       </c>
       <c r="D172" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="E172">
-        <v>0.477939698942073</v>
+        <v>0.12826981687522901</v>
       </c>
       <c r="F172">
-        <v>0.27734873367868901</v>
+        <v>0.197285533641093</v>
       </c>
       <c r="G172">
-        <v>0.24386619817365501</v>
+        <v>0.219384513528772</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="B173" t="s">
-        <v>348</v>
+        <v>150</v>
       </c>
       <c r="C173">
-        <v>4621</v>
+        <v>5206</v>
       </c>
       <c r="D173" t="s">
-        <v>349</v>
+        <v>151</v>
       </c>
       <c r="E173">
-        <v>0.84965107047362098</v>
+        <v>2.8805200175560501</v>
       </c>
       <c r="F173">
-        <v>2.5329518949348699</v>
+        <v>1.4971000467242701</v>
       </c>
       <c r="G173">
-        <v>2.39243842382951</v>
+        <v>1.2387248628877701</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="B174" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="C174">
-        <v>5130</v>
+        <v>4978</v>
       </c>
       <c r="D174" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E174">
-        <v>0.27085120446501898</v>
+        <v>0.454991185985608</v>
       </c>
       <c r="F174">
-        <v>0.52587250603154001</v>
+        <v>3.2772217951626801</v>
       </c>
       <c r="G174">
-        <v>0.49763684319741602</v>
+        <v>4.7657707660836301</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B175" t="s">
-        <v>352</v>
+        <v>226</v>
       </c>
       <c r="C175">
-        <v>4670</v>
+        <v>4137</v>
       </c>
       <c r="D175" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="E175">
-        <v>0.24779240797079699</v>
+        <v>0.847107411139842</v>
       </c>
       <c r="F175">
-        <v>0.171770614865174</v>
+        <v>0.57714577750492602</v>
       </c>
       <c r="G175">
-        <v>0.16198059226536299</v>
+        <v>0.548755654169925</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="B176" t="s">
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="C176">
-        <v>4928</v>
+        <v>5032</v>
       </c>
       <c r="D176" t="s">
-        <v>355</v>
+        <v>153</v>
       </c>
       <c r="E176">
-        <v>1.6670783658873201</v>
+        <v>0.32606800620742499</v>
       </c>
       <c r="F176">
-        <v>0.26781637240434503</v>
+        <v>0.12501276998353</v>
       </c>
       <c r="G176">
-        <v>0.35741266578177699</v>
+        <v>0.125082463970317</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="B177" t="s">
-        <v>356</v>
+        <v>56</v>
       </c>
       <c r="C177">
-        <v>130</v>
+        <v>3015</v>
       </c>
       <c r="D177" t="s">
-        <v>357</v>
+        <v>57</v>
       </c>
       <c r="E177">
-        <v>9.2015519408888899E-2</v>
+        <v>0.53572942086415298</v>
       </c>
       <c r="F177">
-        <v>0.104857815975749</v>
+        <v>1.6803232209079999</v>
       </c>
       <c r="G177">
-        <v>0.151450031533686</v>
+        <v>1.53331657598647</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="B178" t="s">
-        <v>358</v>
+        <v>220</v>
       </c>
       <c r="C178">
-        <v>5100</v>
+        <v>4150</v>
       </c>
       <c r="D178" t="s">
-        <v>359</v>
+        <v>221</v>
       </c>
       <c r="E178">
-        <v>0.27389335142669902</v>
+        <v>2.3765400258809901</v>
       </c>
       <c r="F178">
-        <v>0.57924996285986197</v>
+        <v>2.69159084477212</v>
       </c>
       <c r="G178">
-        <v>0.54867052172780995</v>
+        <v>3.1302080044004099</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="B179" t="s">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="C179">
-        <v>5414</v>
+        <v>512</v>
       </c>
       <c r="D179" t="s">
-        <v>361</v>
+        <v>541</v>
       </c>
       <c r="E179">
-        <v>0.21970206510465201</v>
+        <v>0.164714493386792</v>
       </c>
       <c r="F179">
-        <v>0.12894755527082899</v>
+        <v>9.7266581178827194E-2</v>
       </c>
       <c r="G179">
-        <v>0.18102788625109101</v>
+        <v>0.20586682789349101</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="B180" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="C180">
-        <v>5321</v>
+        <v>4650</v>
       </c>
       <c r="D180" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="E180">
-        <v>0.204666755682445</v>
+        <v>1.67992649202537</v>
       </c>
       <c r="F180">
-        <v>9.8307181719133704E-2</v>
+        <v>0.93431822721642699</v>
       </c>
       <c r="G180">
-        <v>0.171687029559878</v>
+        <v>1.33334552530682</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B181" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="C181">
-        <v>51</v>
+        <v>4217</v>
       </c>
       <c r="D181" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="E181">
-        <v>0.27979798634818798</v>
+        <v>1.6633105483088599</v>
       </c>
       <c r="F181">
-        <v>0.95356744260385495</v>
+        <v>1.2030094625507399</v>
       </c>
       <c r="G181">
-        <v>1.04429636349022</v>
+        <v>0.79649618175234405</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="B182" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="C182">
-        <v>5230</v>
+        <v>4080</v>
       </c>
       <c r="D182" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="E182">
-        <v>1.09848316183745</v>
+        <v>1.0132868397678201</v>
       </c>
       <c r="F182">
-        <v>0.52192370771824503</v>
+        <v>0.29847865202838098</v>
       </c>
       <c r="G182">
-        <v>0.41674318141876499</v>
+        <v>0.178678641040628</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="B183" t="s">
-        <v>368</v>
+        <v>538</v>
       </c>
       <c r="C183">
-        <v>4727</v>
+        <v>4722</v>
       </c>
       <c r="D183" t="s">
-        <v>369</v>
+        <v>539</v>
       </c>
       <c r="E183">
-        <v>0.10725591139285801</v>
+        <v>2.7258944314683</v>
       </c>
       <c r="F183">
-        <v>0.22785188065025999</v>
+        <v>1.13368644889333</v>
       </c>
       <c r="G183">
-        <v>0.29790067233852002</v>
+        <v>0.72268259269194801</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="B184" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="C184">
-        <v>4630</v>
+        <v>4613</v>
       </c>
       <c r="D184" t="s">
-        <v>371</v>
+        <v>313</v>
       </c>
       <c r="E184">
-        <v>1.66467901514079</v>
+        <v>1.11273916723021</v>
       </c>
       <c r="F184">
-        <v>0.33988510829556101</v>
+        <v>0.62621339460768799</v>
       </c>
       <c r="G184">
-        <v>0.14713949361761899</v>
+        <v>0.42274243620256302</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="B185" t="s">
-        <v>372</v>
+        <v>136</v>
       </c>
       <c r="C185">
-        <v>603</v>
+        <v>4064</v>
       </c>
       <c r="D185" t="s">
-        <v>373</v>
+        <v>137</v>
       </c>
       <c r="E185">
-        <v>9.4094636769751397E-2</v>
+        <v>0.46037251246953198</v>
       </c>
       <c r="F185">
-        <v>0.120716349928276</v>
+        <v>1.20973095741633</v>
       </c>
       <c r="G185">
-        <v>0.18748799476458899</v>
+        <v>1.9006471524941799</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="B186" t="s">
-        <v>374</v>
+        <v>50</v>
       </c>
       <c r="C186">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="D186" t="s">
-        <v>375</v>
+        <v>51</v>
       </c>
       <c r="E186">
-        <v>0.26983465121990802</v>
+        <v>0.31904158634477398</v>
       </c>
       <c r="F186">
-        <v>0.168807855915802</v>
+        <v>8.9303245853516205E-2</v>
       </c>
       <c r="G186">
-        <v>0.35118337144596801</v>
+        <v>0.172453957568</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="B187" t="s">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="C187">
-        <v>4610</v>
+        <v>760</v>
       </c>
       <c r="D187" t="s">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="E187">
-        <v>0.28898852320299601</v>
+        <v>0.204969300723648</v>
       </c>
       <c r="F187">
-        <v>0.159686126755261</v>
+        <v>0.21973433009511101</v>
       </c>
       <c r="G187">
-        <v>0.206978206509529</v>
+        <v>0.24422780839824501</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="B188" t="s">
-        <v>378</v>
+        <v>466</v>
       </c>
       <c r="C188">
-        <v>5205</v>
+        <v>910</v>
       </c>
       <c r="D188" t="s">
-        <v>379</v>
+        <v>467</v>
       </c>
       <c r="E188">
-        <v>2.25536417904291</v>
+        <v>0.36014729782653399</v>
       </c>
       <c r="F188">
-        <v>1.9158285757181199</v>
+        <v>0.37784869103077101</v>
       </c>
       <c r="G188">
-        <v>1.7054330446549599</v>
+        <v>0.25629978249844598</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B189" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="C189">
-        <v>4140</v>
+        <v>4621</v>
       </c>
       <c r="D189" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="E189">
-        <v>2.99769905435627</v>
+        <v>0.84965107047362098</v>
       </c>
       <c r="F189">
-        <v>5.3753601671248701</v>
+        <v>2.5329518949348699</v>
       </c>
       <c r="G189">
-        <v>4.6047780024691303</v>
+        <v>2.39243842382951</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="B190" t="s">
-        <v>382</v>
+        <v>140</v>
       </c>
       <c r="C190">
-        <v>10</v>
+        <v>4932</v>
       </c>
       <c r="D190" t="s">
-        <v>383</v>
+        <v>141</v>
       </c>
       <c r="E190">
-        <v>0.33924944144010899</v>
+        <v>0.93471813190817699</v>
       </c>
       <c r="F190">
-        <v>0.75362992759636704</v>
+        <v>0.79034175042819999</v>
       </c>
       <c r="G190">
-        <v>1.1604500400025799</v>
+        <v>0.48322258279667701</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>384</v>
+        <v>32</v>
       </c>
       <c r="C191">
-        <v>4144</v>
+        <v>5223</v>
       </c>
       <c r="D191" t="s">
-        <v>385</v>
+        <v>33</v>
       </c>
       <c r="E191">
-        <v>0.54983304167918301</v>
+        <v>1.0376462124343</v>
       </c>
       <c r="F191">
-        <v>2.5001863944526801</v>
+        <v>0.194667184209593</v>
       </c>
       <c r="G191">
-        <v>2.2076385840991102</v>
+        <v>0.16321978408256399</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B192" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="C192">
-        <v>1521</v>
+        <v>4330</v>
       </c>
       <c r="D192" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="E192">
-        <v>1.0101760666841499</v>
+        <v>2.00711924675766</v>
       </c>
       <c r="F192">
-        <v>1.8091518133110001</v>
+        <v>1.6101413305809</v>
       </c>
       <c r="G192">
-        <v>1.7442424559115099</v>
+        <v>0.68344753548015602</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="B193" t="s">
-        <v>388</v>
+        <v>298</v>
       </c>
       <c r="C193">
-        <v>5415</v>
+        <v>4740</v>
       </c>
       <c r="D193" t="s">
-        <v>389</v>
+        <v>299</v>
       </c>
       <c r="E193">
-        <v>0.292058224332643</v>
+        <v>0.77805844826657899</v>
       </c>
       <c r="F193">
-        <v>0.22507589551572901</v>
+        <v>0.26043532348057002</v>
       </c>
       <c r="G193">
-        <v>0.13939904604363501</v>
+        <v>0.24647992911569599</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B194" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="C194">
-        <v>5133</v>
+        <v>670</v>
       </c>
       <c r="D194" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="E194">
-        <v>0.26176938097192598</v>
+        <v>0.16280991263425901</v>
       </c>
       <c r="F194">
-        <v>0.142270665914736</v>
+        <v>0.123257860335731</v>
       </c>
       <c r="G194">
-        <v>0.123860145185982</v>
+        <v>0.27605334509104701</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="B195" t="s">
-        <v>392</v>
+        <v>52</v>
       </c>
       <c r="C195">
-        <v>4620</v>
+        <v>4114</v>
       </c>
       <c r="D195" t="s">
-        <v>393</v>
+        <v>53</v>
       </c>
       <c r="E195">
-        <v>0.26860565986076101</v>
+        <v>2.6245955851741698</v>
       </c>
       <c r="F195">
-        <v>0.18333218024773501</v>
+        <v>2.7882086278332001</v>
       </c>
       <c r="G195">
-        <v>9.7017777389317397E-2</v>
+        <v>1.9961111542155501</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="B196" t="s">
-        <v>394</v>
+        <v>602</v>
       </c>
       <c r="C196">
-        <v>980</v>
+        <v>4380</v>
       </c>
       <c r="D196" t="s">
-        <v>395</v>
+        <v>603</v>
       </c>
       <c r="E196">
-        <v>0.12826981687522901</v>
+        <v>0.77418960660293301</v>
       </c>
       <c r="F196">
-        <v>0.197285533641093</v>
+        <v>1.0260722061560601</v>
       </c>
       <c r="G196">
-        <v>0.219384513528772</v>
+        <v>1.0381720481438199</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
+        <v>94</v>
+      </c>
+      <c r="B197" t="s">
+        <v>194</v>
+      </c>
+      <c r="C197">
+        <v>4913</v>
+      </c>
+      <c r="D197" t="s">
         <v>195</v>
       </c>
-      <c r="B197" t="s">
-        <v>396</v>
-      </c>
-      <c r="C197">
-        <v>1524</v>
-      </c>
-      <c r="D197" t="s">
-        <v>397</v>
-      </c>
       <c r="E197">
-        <v>0.97043764522626996</v>
+        <v>0.21725539462711699</v>
       </c>
       <c r="F197">
-        <v>2.5546580897913</v>
+        <v>0.99189536819836099</v>
       </c>
       <c r="G197">
-        <v>4.0369554553308804</v>
+        <v>1.2647201786581601</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="B198" t="s">
-        <v>398</v>
+        <v>558</v>
       </c>
       <c r="C198">
-        <v>630</v>
+        <v>190</v>
       </c>
       <c r="D198" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="E198">
-        <v>0.157968560778603</v>
+        <v>2.3450840427184601E-2</v>
       </c>
       <c r="F198">
-        <v>0.105831992774546</v>
+        <v>3.48510737383727E-2</v>
       </c>
       <c r="G198">
-        <v>0.158620708751185</v>
+        <v>6.3662316054495904E-2</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="B199" t="s">
-        <v>400</v>
+        <v>612</v>
       </c>
       <c r="C199">
-        <v>5022</v>
+        <v>4921</v>
       </c>
       <c r="D199" t="s">
-        <v>401</v>
+        <v>613</v>
       </c>
       <c r="E199">
-        <v>0.52169390316770303</v>
+        <v>2.2675023468712601</v>
       </c>
       <c r="F199">
-        <v>0.50699173555355304</v>
+        <v>2.2180228543046598</v>
       </c>
       <c r="G199">
-        <v>0.51330579135652599</v>
+        <v>2.0961458932417401</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B200" t="s">
-        <v>402</v>
+        <v>146</v>
       </c>
       <c r="C200">
-        <v>5165</v>
+        <v>4115</v>
       </c>
       <c r="D200" t="s">
-        <v>403</v>
+        <v>147</v>
       </c>
       <c r="E200">
-        <v>1.2101131217754499</v>
+        <v>0.51427470918466101</v>
       </c>
       <c r="F200">
-        <v>0.25633924895563998</v>
+        <v>0.10994158075925101</v>
       </c>
       <c r="G200">
-        <v>0.168814876687471</v>
+        <v>0.26650698028679698</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="B201" t="s">
-        <v>404</v>
+        <v>196</v>
       </c>
       <c r="C201">
-        <v>4330</v>
+        <v>5212</v>
       </c>
       <c r="D201" t="s">
-        <v>405</v>
+        <v>197</v>
       </c>
       <c r="E201">
-        <v>2.00711924675766</v>
+        <v>1.03717809082318</v>
       </c>
       <c r="F201">
-        <v>1.6101413305809</v>
+        <v>0.19917815817644299</v>
       </c>
       <c r="G201">
-        <v>0.68344753548015602</v>
+        <v>0.179109288068006</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="B202" t="s">
-        <v>406</v>
+        <v>534</v>
       </c>
       <c r="C202">
-        <v>4927</v>
+        <v>4972</v>
       </c>
       <c r="D202" t="s">
-        <v>407</v>
+        <v>535</v>
       </c>
       <c r="E202">
-        <v>0.43555902647442302</v>
+        <v>0.48257443113545001</v>
       </c>
       <c r="F202">
-        <v>0.145542876450443</v>
+        <v>0.34875005912720802</v>
       </c>
       <c r="G202">
-        <v>0.210983252722516</v>
+        <v>0.26088919218328099</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="B203" t="s">
-        <v>408</v>
+        <v>584</v>
       </c>
       <c r="C203">
-        <v>1523</v>
+        <v>770</v>
       </c>
       <c r="D203" t="s">
-        <v>409</v>
+        <v>585</v>
       </c>
       <c r="E203">
-        <v>0.27769120312473999</v>
+        <v>0.324155185434232</v>
       </c>
       <c r="F203">
-        <v>0.22707991652326101</v>
+        <v>0.19645332773732099</v>
       </c>
       <c r="G203">
-        <v>0.16931101359814901</v>
+        <v>0.31152552980463299</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="B204" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="C204">
-        <v>5323</v>
+        <v>4928</v>
       </c>
       <c r="D204" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="E204">
-        <v>0.31915891419692699</v>
+        <v>1.6670783658873201</v>
       </c>
       <c r="F204">
-        <v>0.15498070608992401</v>
+        <v>0.26781637240434503</v>
       </c>
       <c r="G204">
-        <v>0.35759917819665199</v>
+        <v>0.35741266578177699</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="B205" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="C205">
-        <v>563</v>
+        <v>5012</v>
       </c>
       <c r="D205" t="s">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="E205">
-        <v>3.8459515442767801E-2</v>
+        <v>0.119711063090732</v>
       </c>
       <c r="F205">
-        <v>6.4549376743723894E-2</v>
+        <v>5.7129654908232699E-2</v>
       </c>
       <c r="G205">
-        <v>0.11108894083335601</v>
+        <v>5.3914772759643098E-2</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="B206" t="s">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="C206">
-        <v>4917</v>
+        <v>5130</v>
       </c>
       <c r="D206" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="E206">
-        <v>0.91643406117019299</v>
+        <v>0.27085120446501898</v>
       </c>
       <c r="F206">
-        <v>0.17118803816362599</v>
+        <v>0.52587250603154001</v>
       </c>
       <c r="G206">
-        <v>0.159678684375923</v>
+        <v>0.49763684319741602</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="B207" t="s">
-        <v>416</v>
+        <v>216</v>
       </c>
       <c r="C207">
-        <v>5135</v>
+        <v>5200</v>
       </c>
       <c r="D207" t="s">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="E207">
-        <v>0.494397371156586</v>
+        <v>1.8651974350935501</v>
       </c>
       <c r="F207">
-        <v>1.24966455013653</v>
+        <v>1.39825073804188</v>
       </c>
       <c r="G207">
-        <v>1.12972850621503</v>
+        <v>1.70460172581465</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B208" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C208">
-        <v>4612</v>
+        <v>5022</v>
       </c>
       <c r="D208" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="E208">
-        <v>0.248347050789791</v>
+        <v>0.52169390316770303</v>
       </c>
       <c r="F208">
-        <v>0.16038696895038701</v>
+        <v>0.50699173555355304</v>
       </c>
       <c r="G208">
-        <v>0.144970863882881</v>
+        <v>0.51330579135652599</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="B209" t="s">
-        <v>420</v>
+        <v>116</v>
       </c>
       <c r="C209">
-        <v>330</v>
+        <v>5235</v>
       </c>
       <c r="D209" t="s">
-        <v>421</v>
+        <v>117</v>
       </c>
       <c r="E209">
-        <v>0.25408294819144001</v>
+        <v>1.22294106911696</v>
       </c>
       <c r="F209">
-        <v>0.153810881640154</v>
+        <v>0.41162636737935798</v>
       </c>
       <c r="G209">
-        <v>0.27538618876972298</v>
+        <v>0.463221700519099</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="B210" t="s">
-        <v>422</v>
+        <v>594</v>
       </c>
       <c r="C210">
-        <v>5016</v>
+        <v>40</v>
       </c>
       <c r="D210" t="s">
-        <v>423</v>
+        <v>595</v>
       </c>
       <c r="E210">
-        <v>0.84000582902588805</v>
+        <v>0.17196469388355401</v>
       </c>
       <c r="F210">
-        <v>1.49544589344405</v>
+        <v>0.10802291258548199</v>
       </c>
       <c r="G210">
-        <v>1.07090511801916</v>
+        <v>0.18265472779163999</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="B211" t="s">
-        <v>424</v>
+        <v>518</v>
       </c>
       <c r="C211">
-        <v>4141</v>
+        <v>30</v>
       </c>
       <c r="D211" t="s">
-        <v>425</v>
+        <v>519</v>
       </c>
       <c r="E211">
-        <v>1.80307760531107</v>
+        <v>0.136022296974912</v>
       </c>
       <c r="F211">
-        <v>0.40585737493759</v>
+        <v>0.59824565072122604</v>
       </c>
       <c r="G211">
-        <v>0.99306967510313704</v>
+        <v>0.61924000118445099</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="B212" t="s">
-        <v>426</v>
+        <v>204</v>
       </c>
       <c r="C212">
-        <v>4979</v>
+        <v>4146</v>
       </c>
       <c r="D212" t="s">
-        <v>427</v>
+        <v>205</v>
       </c>
       <c r="E212">
-        <v>0.62043441355954798</v>
+        <v>0.17129100112742099</v>
       </c>
       <c r="F212">
-        <v>0.33617377159874501</v>
+        <v>8.7142260895524695E-2</v>
       </c>
       <c r="G212">
-        <v>0.36134356612527901</v>
+        <v>0.16857931132977799</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B213" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="C213">
-        <v>670</v>
+        <v>5133</v>
       </c>
       <c r="D213" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="E213">
-        <v>0.16280991263425901</v>
+        <v>0.26176938097192598</v>
       </c>
       <c r="F213">
-        <v>0.123257860335731</v>
+        <v>0.142270665914736</v>
       </c>
       <c r="G213">
-        <v>0.27605334509104701</v>
+        <v>0.123860145185982</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="B214" t="s">
-        <v>430</v>
+        <v>28</v>
       </c>
       <c r="C214">
-        <v>260</v>
+        <v>4145</v>
       </c>
       <c r="D214" t="s">
-        <v>431</v>
+        <v>29</v>
       </c>
       <c r="E214">
-        <v>0.75285355124448305</v>
+        <v>0.25510469973065802</v>
       </c>
       <c r="F214">
-        <v>0.18164284883537299</v>
+        <v>0.31451996620392803</v>
       </c>
       <c r="G214">
-        <v>0.49564072629781097</v>
+        <v>0.32841428840800702</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C215">
-        <v>4978</v>
+        <v>360</v>
       </c>
       <c r="D215" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E215">
-        <v>0.454991185985608</v>
+        <v>0.21098594402012</v>
       </c>
       <c r="F215">
-        <v>3.2772217951626801</v>
+        <v>0.16060274809313099</v>
       </c>
       <c r="G215">
-        <v>4.7657707660836301</v>
+        <v>0.24214368276959</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="B216" t="s">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="C216">
-        <v>4730</v>
+        <v>4070</v>
       </c>
       <c r="D216" t="s">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="E216">
-        <v>0.93056974157161298</v>
+        <v>0.78773156608489503</v>
       </c>
       <c r="F216">
-        <v>1.22647230764719</v>
+        <v>1.2519947459637699</v>
       </c>
       <c r="G216">
-        <v>1.30044535474958</v>
+        <v>0.59400613027353599</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B217" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="C217">
-        <v>4650</v>
+        <v>4072</v>
       </c>
       <c r="D217" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="E217">
-        <v>1.67992649202537</v>
+        <v>1.6104357406246499</v>
       </c>
       <c r="F217">
-        <v>0.93431822721642699</v>
+        <v>1.50577270898823</v>
       </c>
       <c r="G217">
-        <v>1.33334552530682</v>
+        <v>2.0330259467909602</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="B218" t="s">
-        <v>438</v>
+        <v>306</v>
       </c>
       <c r="C218">
-        <v>4720</v>
+        <v>440</v>
       </c>
       <c r="D218" t="s">
-        <v>439</v>
+        <v>307</v>
       </c>
       <c r="E218">
-        <v>4.8875328007900203</v>
+        <v>0.39962795583641703</v>
       </c>
       <c r="F218">
-        <v>2.5236125587359801</v>
+        <v>0.16654734160068099</v>
       </c>
       <c r="G218">
-        <v>1.4322513375417401</v>
+        <v>0.26940259395314797</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="B219" t="s">
-        <v>440</v>
+        <v>610</v>
       </c>
       <c r="C219">
-        <v>360</v>
+        <v>4744</v>
       </c>
       <c r="D219" t="s">
-        <v>441</v>
+        <v>611</v>
       </c>
       <c r="E219">
-        <v>0.21098594402012</v>
+        <v>0.19160930694859499</v>
       </c>
       <c r="F219">
-        <v>0.16060274809313099</v>
+        <v>0.229072328408433</v>
       </c>
       <c r="G219">
-        <v>0.24214368276959</v>
+        <v>0.26210970295133601</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="B220" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="C220">
-        <v>5020</v>
+        <v>4151</v>
       </c>
       <c r="D220" t="s">
-        <v>443</v>
+        <v>503</v>
       </c>
       <c r="E220">
-        <v>0.56195187500487898</v>
+        <v>2.2020550890483799</v>
       </c>
       <c r="F220">
-        <v>0.63230036871696704</v>
+        <v>0.84582221539886604</v>
       </c>
       <c r="G220">
-        <v>0.77193509475026001</v>
+        <v>0.69595010755986497</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="B221" t="s">
-        <v>444</v>
+        <v>524</v>
       </c>
       <c r="C221">
-        <v>760</v>
+        <v>4611</v>
       </c>
       <c r="D221" t="s">
-        <v>445</v>
+        <v>525</v>
       </c>
       <c r="E221">
-        <v>0.204969300723648</v>
+        <v>0.33827437620610301</v>
       </c>
       <c r="F221">
-        <v>0.21973433009511101</v>
+        <v>0.170504229097444</v>
       </c>
       <c r="G221">
-        <v>0.24422780839824501</v>
+        <v>0.204601999492629</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B222" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="C222">
-        <v>5210</v>
+        <v>1524</v>
       </c>
       <c r="D222" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="E222">
-        <v>0.86681828161866104</v>
+        <v>0.97043764522626996</v>
       </c>
       <c r="F222">
-        <v>0.38033146845287802</v>
+        <v>2.5546580897913</v>
       </c>
       <c r="G222">
-        <v>0.59072690159357399</v>
+        <v>4.0369554553308804</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="B223" t="s">
-        <v>448</v>
+        <v>98</v>
       </c>
       <c r="C223">
-        <v>3018</v>
+        <v>860</v>
       </c>
       <c r="D223" t="s">
-        <v>449</v>
+        <v>99</v>
       </c>
       <c r="E223">
-        <v>0.15462769966075399</v>
+        <v>6.7859942388902694E-2</v>
       </c>
       <c r="F223">
-        <v>0.38756536626485799</v>
+        <v>8.7599984660125405E-2</v>
       </c>
       <c r="G223">
-        <v>0.30448632053137797</v>
+        <v>0.120971458763343</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>222</v>
+        <v>112</v>
       </c>
       <c r="B224" t="s">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="C224">
-        <v>410</v>
+        <v>3320</v>
       </c>
       <c r="D224" t="s">
-        <v>451</v>
+        <v>231</v>
       </c>
       <c r="E224">
-        <v>0.36231996148078799</v>
+        <v>0.29694673245346198</v>
       </c>
       <c r="F224">
-        <v>0.13106951544648399</v>
+        <v>0.13720754823586301</v>
       </c>
       <c r="G224">
-        <v>0.26512697338623098</v>
+        <v>0.33199882957860399</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C225">
-        <v>565</v>
+        <v>120</v>
       </c>
       <c r="D225" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E225">
-        <v>0.15738889026921099</v>
+        <v>0.14889694599838299</v>
       </c>
       <c r="F225">
-        <v>0.19057468985120199</v>
+        <v>0.14380651689364499</v>
       </c>
       <c r="G225">
-        <v>0.17810468185647599</v>
+        <v>0.236797325823733</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B226" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C226">
-        <v>4350</v>
+        <v>5020</v>
       </c>
       <c r="D226" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E226">
-        <v>0.59467261860772402</v>
+        <v>0.56195187500487898</v>
       </c>
       <c r="F226">
-        <v>0.19996829594594701</v>
+        <v>0.63230036871696704</v>
       </c>
       <c r="G226">
-        <v>0.12548726046028999</v>
+        <v>0.77193509475026001</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="B227" t="s">
-        <v>456</v>
+        <v>340</v>
       </c>
       <c r="C227">
-        <v>5150</v>
+        <v>4914</v>
       </c>
       <c r="D227" t="s">
-        <v>457</v>
+        <v>341</v>
       </c>
       <c r="E227">
-        <v>0.56655352981469598</v>
+        <v>1.6692711179984301</v>
       </c>
       <c r="F227">
-        <v>0.26897833703424101</v>
+        <v>5.5074145723255699</v>
       </c>
       <c r="G227">
-        <v>0.23526478092661501</v>
+        <v>5.2383393685791297</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B228" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="C228">
-        <v>120</v>
+        <v>4917</v>
       </c>
       <c r="D228" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="E228">
-        <v>0.14889694599838299</v>
+        <v>0.91643406117019299</v>
       </c>
       <c r="F228">
-        <v>0.14380651689364499</v>
+        <v>0.17118803816362599</v>
       </c>
       <c r="G228">
-        <v>0.236797325823733</v>
+        <v>0.159678684375923</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="B229" t="s">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="C229">
-        <v>4810</v>
+        <v>640</v>
       </c>
       <c r="D229" t="s">
-        <v>461</v>
+        <v>345</v>
       </c>
       <c r="E229">
-        <v>1.5972037019346399</v>
+        <v>0.29737870079043699</v>
       </c>
       <c r="F229">
-        <v>3.3221695880039501</v>
+        <v>0.59678719287168402</v>
       </c>
       <c r="G229">
-        <v>2.5078533450364602</v>
+        <v>1.4430662673027499</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B230" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="C230">
-        <v>5144</v>
+        <v>5215</v>
       </c>
       <c r="D230" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="E230">
-        <v>0.25485150300494502</v>
+        <v>2.9990308419555398</v>
       </c>
       <c r="F230">
-        <v>0.156745117340921</v>
+        <v>1.62405141492036</v>
       </c>
       <c r="G230">
-        <v>0.18013190022766101</v>
+        <v>0.85710270301428904</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B231" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="C231">
-        <v>4072</v>
+        <v>4141</v>
       </c>
       <c r="D231" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="E231">
-        <v>1.6104357406246499</v>
+        <v>1.80307760531107</v>
       </c>
       <c r="F231">
-        <v>1.50577270898823</v>
+        <v>0.40585737493759</v>
       </c>
       <c r="G231">
-        <v>2.0330259467909602</v>
+        <v>0.99306967510313704</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="B232" t="s">
-        <v>466</v>
+        <v>378</v>
       </c>
       <c r="C232">
-        <v>910</v>
+        <v>5205</v>
       </c>
       <c r="D232" t="s">
-        <v>467</v>
+        <v>379</v>
       </c>
       <c r="E232">
-        <v>0.36014729782653399</v>
+        <v>2.25536417904291</v>
       </c>
       <c r="F232">
-        <v>0.37784869103077101</v>
+        <v>1.9158285757181199</v>
       </c>
       <c r="G232">
-        <v>0.25629978249844598</v>
+        <v>1.7054330446549599</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>231</v>
+        <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>468</v>
+        <v>22</v>
       </c>
       <c r="C233">
-        <v>513</v>
+        <v>4964</v>
       </c>
       <c r="D233" t="s">
-        <v>469</v>
+        <v>23</v>
       </c>
       <c r="E233">
-        <v>0.16910186044079401</v>
+        <v>0.75210553033628502</v>
       </c>
       <c r="F233">
-        <v>0.194858502070999</v>
+        <v>0.21562862387015899</v>
       </c>
       <c r="G233">
-        <v>0.166212820721927</v>
+        <v>0.54000844625463895</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="B234" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="C234">
-        <v>5134</v>
+        <v>230</v>
       </c>
       <c r="D234" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="E234">
-        <v>1.3621342263793199</v>
+        <v>8.6822724625270298E-2</v>
       </c>
       <c r="F234">
-        <v>1.6492201978458401</v>
+        <v>0.13988195640479101</v>
       </c>
       <c r="G234">
-        <v>1.4447455001263001</v>
+        <v>0.146333511845641</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="B235" t="s">
-        <v>472</v>
+        <v>214</v>
       </c>
       <c r="C235">
-        <v>4970</v>
+        <v>240</v>
       </c>
       <c r="D235" t="s">
-        <v>473</v>
+        <v>215</v>
       </c>
       <c r="E235">
-        <v>0.51658304487618201</v>
+        <v>0.26781215875859299</v>
       </c>
       <c r="F235">
-        <v>0.39121168835217701</v>
+        <v>0.138972177443558</v>
       </c>
       <c r="G235">
-        <v>0.24308180084677</v>
+        <v>9.7032943886583595E-2</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="B236" t="s">
-        <v>474</v>
+        <v>154</v>
       </c>
       <c r="C236">
-        <v>5171</v>
+        <v>620</v>
       </c>
       <c r="D236" t="s">
-        <v>475</v>
+        <v>155</v>
       </c>
       <c r="E236">
-        <v>0.213065723042064</v>
+        <v>0.48780065975470799</v>
       </c>
       <c r="F236">
-        <v>0.66031744229690503</v>
+        <v>9.4261248694980301E-2</v>
       </c>
       <c r="G236">
-        <v>0.29333512022464397</v>
+        <v>0.32189302343362303</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="B237" t="s">
-        <v>476</v>
+        <v>336</v>
       </c>
       <c r="C237">
-        <v>5017</v>
+        <v>4015</v>
       </c>
       <c r="D237" t="s">
-        <v>477</v>
+        <v>337</v>
       </c>
       <c r="E237">
-        <v>0.66574248731531205</v>
+        <v>0.68573762500852797</v>
       </c>
       <c r="F237">
-        <v>1.36535966187736</v>
+        <v>0.75609763163344401</v>
       </c>
       <c r="G237">
-        <v>0.87906199398333995</v>
+        <v>0.96748850276043297</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B238" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="C238">
-        <v>4976</v>
+        <v>4014</v>
       </c>
       <c r="D238" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="E238">
-        <v>0.60802679655565095</v>
+        <v>1.5959139732380101</v>
       </c>
       <c r="F238">
-        <v>0.323095231879723</v>
+        <v>1.20827492254475</v>
       </c>
       <c r="G238">
-        <v>0.42340112947120201</v>
+        <v>1.2579602138397901</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B239" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="C239">
-        <v>4060</v>
+        <v>4810</v>
       </c>
       <c r="D239" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="E239">
-        <v>0.39928971684043102</v>
+        <v>1.5972037019346399</v>
       </c>
       <c r="F239">
-        <v>0.89828526440062795</v>
+        <v>3.3221695880039501</v>
       </c>
       <c r="G239">
-        <v>1.5600665572957799</v>
+        <v>2.5078533450364602</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B240" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="C240">
-        <v>4925</v>
+        <v>4923</v>
       </c>
       <c r="D240" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="E240">
-        <v>1.3584163498333399</v>
+        <v>0.20496888485390299</v>
       </c>
       <c r="F240">
-        <v>0.43540591124405698</v>
+        <v>0.22696541599655601</v>
       </c>
       <c r="G240">
-        <v>0.23788023708759301</v>
+        <v>0.22823250971773701</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="B241" t="s">
-        <v>484</v>
+        <v>102</v>
       </c>
       <c r="C241">
-        <v>280</v>
+        <v>4926</v>
       </c>
       <c r="D241" t="s">
-        <v>485</v>
+        <v>103</v>
       </c>
       <c r="E241">
-        <v>0.24639991277946</v>
+        <v>0.50893908707789803</v>
       </c>
       <c r="F241">
-        <v>0.201168398067471</v>
+        <v>8.0230023016184995E-2</v>
       </c>
       <c r="G241">
-        <v>0.821098348986535</v>
+        <v>0.11905941326204</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="B242" t="s">
-        <v>486</v>
+        <v>198</v>
       </c>
       <c r="C242">
-        <v>380</v>
+        <v>5211</v>
       </c>
       <c r="D242" t="s">
-        <v>487</v>
+        <v>199</v>
       </c>
       <c r="E242">
-        <v>0.15702158341026901</v>
+        <v>2.70331429847116</v>
       </c>
       <c r="F242">
-        <v>0.10111785117401501</v>
+        <v>0.75334863424217902</v>
       </c>
       <c r="G242">
-        <v>0.178051988816844</v>
+        <v>0.23345738553068501</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="B243" t="s">
-        <v>488</v>
+        <v>246</v>
       </c>
       <c r="C243">
-        <v>4662</v>
+        <v>4924</v>
       </c>
       <c r="D243" t="s">
-        <v>489</v>
+        <v>247</v>
       </c>
       <c r="E243">
-        <v>1.66156473825783</v>
+        <v>0.51938185122557901</v>
       </c>
       <c r="F243">
-        <v>0.54871324821773804</v>
+        <v>0.70654810428238302</v>
       </c>
       <c r="G243">
-        <v>0.59565484523298295</v>
+        <v>0.99704296008726701</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="B244" t="s">
-        <v>490</v>
+        <v>272</v>
       </c>
       <c r="C244">
-        <v>970</v>
+        <v>4614</v>
       </c>
       <c r="D244" t="s">
-        <v>491</v>
+        <v>273</v>
       </c>
       <c r="E244">
-        <v>0.98082723414241302</v>
+        <v>0.163236472626831</v>
       </c>
       <c r="F244">
-        <v>6.5342955477883297E-2</v>
+        <v>0.130792008019885</v>
       </c>
       <c r="G244">
-        <v>0.28790844597077497</v>
+        <v>0.208239965629476</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>243</v>
+        <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>492</v>
+        <v>18</v>
       </c>
       <c r="C245">
-        <v>4936</v>
+        <v>830</v>
       </c>
       <c r="D245" t="s">
-        <v>493</v>
+        <v>19</v>
       </c>
       <c r="E245">
-        <v>0.59552632008414497</v>
+        <v>0.16443939090930401</v>
       </c>
       <c r="F245">
-        <v>0.591195317877792</v>
+        <v>0.146885727469931</v>
       </c>
       <c r="G245">
-        <v>0.53569488705334201</v>
+        <v>0.21723992781408999</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="B246" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="C246">
-        <v>4923</v>
+        <v>4723</v>
       </c>
       <c r="D246" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="E246">
-        <v>0.20496888485390299</v>
+        <v>3.5159091011756599E-2</v>
       </c>
       <c r="F246">
-        <v>0.22696541599655601</v>
+        <v>2.4319893814635601E-2</v>
       </c>
       <c r="G246">
-        <v>0.22823250971773701</v>
+        <v>3.06251131627184E-2</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="B247" t="s">
-        <v>496</v>
+        <v>410</v>
       </c>
       <c r="C247">
-        <v>5215</v>
+        <v>5323</v>
       </c>
       <c r="D247" t="s">
-        <v>497</v>
+        <v>411</v>
       </c>
       <c r="E247">
-        <v>2.9990308419555398</v>
+        <v>0.31915891419692699</v>
       </c>
       <c r="F247">
-        <v>1.62405141492036</v>
+        <v>0.15498070608992401</v>
       </c>
       <c r="G247">
-        <v>0.85710270301428904</v>
+        <v>0.35759917819665199</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="B248" t="s">
-        <v>498</v>
+        <v>130</v>
       </c>
       <c r="C248">
-        <v>5224</v>
+        <v>740</v>
       </c>
       <c r="D248" t="s">
-        <v>499</v>
+        <v>131</v>
       </c>
       <c r="E248">
-        <v>0.99511735655751399</v>
+        <v>0.25724888667761397</v>
       </c>
       <c r="F248">
-        <v>1.54717449539995</v>
+        <v>0.19352232991321</v>
       </c>
       <c r="G248">
-        <v>1.71235055334209</v>
+        <v>0.21780359425166701</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="B249" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="C249">
-        <v>4014</v>
+        <v>4622</v>
       </c>
       <c r="D249" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="E249">
-        <v>1.5959139732380101</v>
+        <v>1.87874990312428</v>
       </c>
       <c r="F249">
-        <v>1.20827492254475</v>
+        <v>0.90722280264364596</v>
       </c>
       <c r="G249">
-        <v>1.2579602138397901</v>
+        <v>0.24833887712209499</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="B250" t="s">
-        <v>502</v>
+        <v>448</v>
       </c>
       <c r="C250">
-        <v>4151</v>
+        <v>3018</v>
       </c>
       <c r="D250" t="s">
-        <v>503</v>
+        <v>449</v>
       </c>
       <c r="E250">
-        <v>2.2020550890483799</v>
+        <v>0.15462769966075399</v>
       </c>
       <c r="F250">
-        <v>0.84582221539886604</v>
+        <v>0.38756536626485799</v>
       </c>
       <c r="G250">
-        <v>0.69595010755986497</v>
+        <v>0.30448632053137797</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B251" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="C251">
-        <v>5417</v>
+        <v>4970</v>
       </c>
       <c r="D251" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="E251">
-        <v>1.62896851238905</v>
+        <v>0.51658304487618201</v>
       </c>
       <c r="F251">
-        <v>0.35641422857264898</v>
+        <v>0.39121168835217701</v>
       </c>
       <c r="G251">
-        <v>0.28859264796311901</v>
+        <v>0.24308180084677</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="B252" t="s">
-        <v>506</v>
+        <v>156</v>
       </c>
       <c r="C252">
-        <v>4210</v>
+        <v>5132</v>
       </c>
       <c r="D252" t="s">
-        <v>507</v>
+        <v>157</v>
       </c>
       <c r="E252">
-        <v>1.69862636930814</v>
+        <v>1.1760116825359499</v>
       </c>
       <c r="F252">
-        <v>2.8104627244862899</v>
+        <v>2.9374321465976201</v>
       </c>
       <c r="G252">
-        <v>3.2606484147180002</v>
+        <v>2.5545330185106399</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="B253" t="s">
-        <v>508</v>
+        <v>346</v>
       </c>
       <c r="C253">
-        <v>4713</v>
+        <v>450</v>
       </c>
       <c r="D253" t="s">
-        <v>509</v>
+        <v>347</v>
       </c>
       <c r="E253">
-        <v>0.48740904806007901</v>
+        <v>0.477939698942073</v>
       </c>
       <c r="F253">
-        <v>0.75208309465775602</v>
+        <v>0.27734873367868901</v>
       </c>
       <c r="G253">
-        <v>0.64628568553941501</v>
+        <v>0.24386619817365501</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="B254" t="s">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="C254">
-        <v>5120</v>
+        <v>4726</v>
       </c>
       <c r="D254" t="s">
-        <v>511</v>
+        <v>81</v>
       </c>
       <c r="E254">
-        <v>0.295444866781995</v>
+        <v>0.74060199098739099</v>
       </c>
       <c r="F254">
-        <v>0.63012912560535095</v>
+        <v>0.17336409536959499</v>
       </c>
       <c r="G254">
-        <v>0.70242215370329997</v>
+        <v>0.125491804743632</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="B255" t="s">
-        <v>512</v>
+        <v>586</v>
       </c>
       <c r="C255">
-        <v>350</v>
+        <v>5131</v>
       </c>
       <c r="D255" t="s">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="E255">
-        <v>0.32926453800456701</v>
+        <v>0.67211045732323604</v>
       </c>
       <c r="F255">
-        <v>0.128447557298979</v>
+        <v>2.06615174727744</v>
       </c>
       <c r="G255">
-        <v>0.25498350604892001</v>
+        <v>1.77809332111003</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="B256" t="s">
-        <v>514</v>
+        <v>324</v>
       </c>
       <c r="C256">
-        <v>5322</v>
+        <v>4550</v>
       </c>
       <c r="D256" t="s">
-        <v>515</v>
+        <v>325</v>
       </c>
       <c r="E256">
-        <v>0.91692723165088397</v>
+        <v>1.2665531251236899</v>
       </c>
       <c r="F256">
-        <v>0.31927411880429202</v>
+        <v>1.76569918185596</v>
       </c>
       <c r="G256">
-        <v>0.20334560848983599</v>
+        <v>2.1023206081358699</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>255</v>
+        <v>68</v>
       </c>
       <c r="B257" t="s">
-        <v>516</v>
+        <v>142</v>
       </c>
       <c r="C257">
-        <v>5163</v>
+        <v>5222</v>
       </c>
       <c r="D257" t="s">
-        <v>517</v>
+        <v>143</v>
       </c>
       <c r="E257">
-        <v>0.67399168892771899</v>
+        <v>0.340996856358878</v>
       </c>
       <c r="F257">
-        <v>0.271038769080516</v>
+        <v>0.56530442224872501</v>
       </c>
       <c r="G257">
-        <v>0.462037128059547</v>
+        <v>0.626578415086814</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="B258" t="s">
-        <v>518</v>
+        <v>342</v>
       </c>
       <c r="C258">
-        <v>30</v>
+        <v>4130</v>
       </c>
       <c r="D258" t="s">
-        <v>519</v>
+        <v>343</v>
       </c>
       <c r="E258">
-        <v>0.136022296974912</v>
+        <v>0.33988819295429801</v>
       </c>
       <c r="F258">
-        <v>0.59824565072122604</v>
+        <v>0.17166842994947501</v>
       </c>
       <c r="G258">
-        <v>0.61924000118445099</v>
+        <v>0.22701528740507801</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B259" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="C259">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="D259" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="E259">
-        <v>8.6822724625270298E-2</v>
+        <v>0.125671646291386</v>
       </c>
       <c r="F259">
-        <v>0.13988195640479101</v>
+        <v>9.17239747807196E-2</v>
       </c>
       <c r="G259">
-        <v>0.146333511845641</v>
+        <v>7.2606776605832701E-2</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B260" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="C260">
-        <v>4211</v>
+        <v>4071</v>
       </c>
       <c r="D260" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="E260">
-        <v>1.3370731187430001</v>
+        <v>1.2617408845856699</v>
       </c>
       <c r="F260">
-        <v>2.0582066524019602</v>
+        <v>0.19018158773649199</v>
       </c>
       <c r="G260">
-        <v>1.7804439493867801</v>
+        <v>0.32122388426852899</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="B261" t="s">
-        <v>524</v>
+        <v>476</v>
       </c>
       <c r="C261">
-        <v>4611</v>
+        <v>5017</v>
       </c>
       <c r="D261" t="s">
-        <v>525</v>
+        <v>477</v>
       </c>
       <c r="E261">
-        <v>0.33827437620610301</v>
+        <v>0.66574248731531205</v>
       </c>
       <c r="F261">
-        <v>0.170504229097444</v>
+        <v>1.36535966187736</v>
       </c>
       <c r="G261">
-        <v>0.204601999492629</v>
+        <v>0.87906199398333995</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="B262" t="s">
-        <v>526</v>
+        <v>456</v>
       </c>
       <c r="C262">
-        <v>4012</v>
+        <v>5150</v>
       </c>
       <c r="D262" t="s">
-        <v>527</v>
+        <v>457</v>
       </c>
       <c r="E262">
-        <v>1.59737117048222</v>
+        <v>0.56655352981469598</v>
       </c>
       <c r="F262">
-        <v>0.64180369344868804</v>
+        <v>0.26897833703424101</v>
       </c>
       <c r="G262">
-        <v>0.52185998842849102</v>
+        <v>0.23526478092661501</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="B263" t="s">
-        <v>528</v>
+        <v>126</v>
       </c>
       <c r="C263">
-        <v>4728</v>
+        <v>500</v>
       </c>
       <c r="D263" t="s">
-        <v>529</v>
+        <v>127</v>
       </c>
       <c r="E263">
-        <v>0.735328392069169</v>
+        <v>0.131953542357613</v>
       </c>
       <c r="F263">
-        <v>0.369441319723116</v>
+        <v>0.48641974332999799</v>
       </c>
       <c r="G263">
-        <v>0.36786069009345101</v>
+        <v>0.58546701985409899</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="B264" t="s">
-        <v>530</v>
+        <v>16</v>
       </c>
       <c r="C264">
-        <v>5219</v>
+        <v>100</v>
       </c>
       <c r="D264" t="s">
-        <v>531</v>
+        <v>17</v>
       </c>
       <c r="E264">
-        <v>1.83569170890282</v>
+        <v>0.53779324734442202</v>
       </c>
       <c r="F264">
-        <v>0.26044961431271801</v>
+        <v>0.42490109487362099</v>
       </c>
       <c r="G264">
-        <v>0.32019107029652299</v>
+        <v>0.24549029337664299</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="B265" t="s">
-        <v>532</v>
+        <v>38</v>
       </c>
       <c r="C265">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="D265" t="s">
-        <v>533</v>
+        <v>39</v>
       </c>
       <c r="E265">
-        <v>0.125671646291386</v>
+        <v>0.23800687123907199</v>
       </c>
       <c r="F265">
-        <v>9.17239747807196E-2</v>
+        <v>0.114303859743233</v>
       </c>
       <c r="G265">
-        <v>7.2606776605832701E-2</v>
+        <v>0.25964917328771497</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="B266" t="s">
-        <v>534</v>
+        <v>122</v>
       </c>
       <c r="C266">
-        <v>4972</v>
+        <v>920</v>
       </c>
       <c r="D266" t="s">
-        <v>535</v>
+        <v>123</v>
       </c>
       <c r="E266">
-        <v>0.48257443113545001</v>
+        <v>0.215736921099069</v>
       </c>
       <c r="F266">
-        <v>0.34875005912720802</v>
+        <v>0.16119314050657199</v>
       </c>
       <c r="G266">
-        <v>0.26088919218328099</v>
+        <v>0.19911510047418499</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>265</v>
+        <v>100</v>
       </c>
       <c r="B267" t="s">
-        <v>536</v>
+        <v>206</v>
       </c>
       <c r="C267">
-        <v>4360</v>
+        <v>4122</v>
       </c>
       <c r="D267" t="s">
-        <v>537</v>
+        <v>207</v>
       </c>
       <c r="E267">
-        <v>1.3096037170768799</v>
+        <v>0.868957005916981</v>
       </c>
       <c r="F267">
-        <v>0.53435579454875304</v>
+        <v>0.33050055919026899</v>
       </c>
       <c r="G267">
-        <v>0.82199771640714903</v>
+        <v>0.171938005352677</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>266</v>
+        <v>141</v>
       </c>
       <c r="B268" t="s">
-        <v>538</v>
+        <v>288</v>
       </c>
       <c r="C268">
-        <v>4722</v>
+        <v>4721</v>
       </c>
       <c r="D268" t="s">
-        <v>539</v>
+        <v>289</v>
       </c>
       <c r="E268">
-        <v>2.7258944314683</v>
+        <v>0.103120179093242</v>
       </c>
       <c r="F268">
-        <v>1.13368644889333</v>
+        <v>0.14989305640630499</v>
       </c>
       <c r="G268">
-        <v>0.72268259269194801</v>
+        <v>0.142310115795554</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B269" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="C269">
-        <v>512</v>
+        <v>5322</v>
       </c>
       <c r="D269" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="E269">
-        <v>0.164714493386792</v>
+        <v>0.91692723165088397</v>
       </c>
       <c r="F269">
-        <v>9.7266581178827194E-2</v>
+        <v>0.31927411880429202</v>
       </c>
       <c r="G269">
-        <v>0.20586682789349101</v>
+        <v>0.20334560848983599</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>268</v>
+        <v>34</v>
       </c>
       <c r="B270" t="s">
-        <v>542</v>
+        <v>74</v>
       </c>
       <c r="C270">
-        <v>4723</v>
+        <v>4660</v>
       </c>
       <c r="D270" t="s">
-        <v>543</v>
+        <v>75</v>
       </c>
       <c r="E270">
-        <v>3.5159091011756599E-2</v>
+        <v>1.7501531488533999</v>
       </c>
       <c r="F270">
-        <v>2.4319893814635601E-2</v>
+        <v>0.69577672332245</v>
       </c>
       <c r="G270">
-        <v>3.06251131627184E-2</v>
+        <v>0.92052192383436804</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="B271" t="s">
-        <v>544</v>
+        <v>330</v>
       </c>
       <c r="C271">
-        <v>601</v>
+        <v>4742</v>
       </c>
       <c r="D271" t="s">
-        <v>545</v>
+        <v>331</v>
       </c>
       <c r="E271">
-        <v>9.8592761611021207E-2</v>
+        <v>0.228901432994187</v>
       </c>
       <c r="F271">
-        <v>0.12905953437574799</v>
+        <v>0.155506771466706</v>
       </c>
       <c r="G271">
-        <v>0.14273216520448301</v>
+        <v>0.18337280617381699</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>270</v>
+        <v>53</v>
       </c>
       <c r="B272" t="s">
-        <v>546</v>
+        <v>112</v>
       </c>
       <c r="C272">
-        <v>5204</v>
+        <v>430</v>
       </c>
       <c r="D272" t="s">
-        <v>547</v>
+        <v>113</v>
       </c>
       <c r="E272">
-        <v>0.24291714192305799</v>
+        <v>0.38016542013571297</v>
       </c>
       <c r="F272">
-        <v>0.232677791749242</v>
+        <v>0.15007490368277901</v>
       </c>
       <c r="G272">
-        <v>0.221837680001604</v>
+        <v>0.32468945786306103</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="B273" t="s">
-        <v>548</v>
+        <v>88</v>
       </c>
       <c r="C273">
-        <v>4071</v>
+        <v>900</v>
       </c>
       <c r="D273" t="s">
-        <v>549</v>
+        <v>89</v>
       </c>
       <c r="E273">
-        <v>1.2617408845856699</v>
+        <v>0.47605996726527899</v>
       </c>
       <c r="F273">
-        <v>0.19018158773649199</v>
+        <v>0.14275240124177899</v>
       </c>
       <c r="G273">
-        <v>0.32122388426852899</v>
+        <v>0.33355013610920797</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="B274" t="s">
-        <v>550</v>
+        <v>454</v>
       </c>
       <c r="C274">
-        <v>4213</v>
+        <v>4350</v>
       </c>
       <c r="D274" t="s">
-        <v>551</v>
+        <v>455</v>
       </c>
       <c r="E274">
-        <v>0.52314321113182405</v>
+        <v>0.59467261860772402</v>
       </c>
       <c r="F274">
-        <v>1.4082286539164499</v>
+        <v>0.19996829594594701</v>
       </c>
       <c r="G274">
-        <v>1.5788375997647099</v>
+        <v>0.12548726046028999</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="B275" t="s">
-        <v>552</v>
+        <v>160</v>
       </c>
       <c r="C275">
-        <v>4270</v>
+        <v>4658</v>
       </c>
       <c r="D275" t="s">
-        <v>553</v>
+        <v>161</v>
       </c>
       <c r="E275">
-        <v>1.4968839056318699</v>
+        <v>0.55559664832213396</v>
       </c>
       <c r="F275">
-        <v>0.99601305483895097</v>
+        <v>0.57057683607531995</v>
       </c>
       <c r="G275">
-        <v>0.80234943700244299</v>
+        <v>0.65035773214895298</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B276" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="C276">
-        <v>4918</v>
+        <v>4659</v>
       </c>
       <c r="D276" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="E276">
-        <v>2.2139332041962598</v>
+        <v>0.70180070790313398</v>
       </c>
       <c r="F276">
-        <v>0.42675210645978201</v>
+        <v>0.51811218530177505</v>
       </c>
       <c r="G276">
-        <v>0.26002745439247699</v>
+        <v>0.53980218752006004</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="B277" t="s">
-        <v>556</v>
+        <v>168</v>
       </c>
       <c r="C277">
-        <v>4657</v>
+        <v>4714</v>
       </c>
       <c r="D277" t="s">
-        <v>557</v>
+        <v>169</v>
       </c>
       <c r="E277">
-        <v>0.13406519171960801</v>
+        <v>1.45966342515254</v>
       </c>
       <c r="F277">
-        <v>0.41956786452210398</v>
+        <v>1.04030251366049</v>
       </c>
       <c r="G277">
-        <v>0.434199711992314</v>
+        <v>0.87926133598075895</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="B278" t="s">
-        <v>558</v>
+        <v>254</v>
       </c>
       <c r="C278">
-        <v>190</v>
+        <v>730</v>
       </c>
       <c r="D278" t="s">
-        <v>559</v>
+        <v>255</v>
       </c>
       <c r="E278">
-        <v>2.3450840427184601E-2</v>
+        <v>0.135116153412778</v>
       </c>
       <c r="F278">
-        <v>3.48510737383727E-2</v>
+        <v>0.155907925584509</v>
       </c>
       <c r="G278">
-        <v>6.3662316054495904E-2</v>
+        <v>0.18082434169445899</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>277</v>
+        <v>61</v>
       </c>
       <c r="B279" t="s">
-        <v>560</v>
+        <v>128</v>
       </c>
       <c r="C279">
-        <v>4622</v>
+        <v>5216</v>
       </c>
       <c r="D279" t="s">
-        <v>561</v>
+        <v>129</v>
       </c>
       <c r="E279">
-        <v>1.87874990312428</v>
+        <v>0.15255794022629901</v>
       </c>
       <c r="F279">
-        <v>0.90722280264364596</v>
+        <v>8.8607090101346597E-2</v>
       </c>
       <c r="G279">
-        <v>0.24833887712209499</v>
+        <v>0.140003163313424</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>278</v>
+        <v>158</v>
       </c>
       <c r="B280" t="s">
-        <v>562</v>
+        <v>322</v>
       </c>
       <c r="C280">
-        <v>52</v>
+        <v>4919</v>
       </c>
       <c r="D280" t="s">
-        <v>563</v>
+        <v>323</v>
       </c>
       <c r="E280">
-        <v>0.26035294124220398</v>
+        <v>2.1528546556308199</v>
       </c>
       <c r="F280">
-        <v>0.418142626370549</v>
+        <v>1.3959262619455399</v>
       </c>
       <c r="G280">
-        <v>0.43302461912777102</v>
+        <v>0.64789024811826301</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B281" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C281">
-        <v>4973</v>
+        <v>4918</v>
       </c>
       <c r="D281" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="E281">
-        <v>0.26442737668086302</v>
+        <v>2.2139332041962598</v>
       </c>
       <c r="F281">
-        <v>0.18341473041818299</v>
+        <v>0.42675210645978201</v>
       </c>
       <c r="G281">
-        <v>0.17298933258332</v>
+        <v>0.26002745439247699</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>280</v>
+        <v>143</v>
       </c>
       <c r="B282" t="s">
-        <v>566</v>
+        <v>292</v>
       </c>
       <c r="C282">
-        <v>515</v>
+        <v>4530</v>
       </c>
       <c r="D282" t="s">
-        <v>567</v>
+        <v>293</v>
       </c>
       <c r="E282">
-        <v>9.1074230342486698E-2</v>
+        <v>1.3710896922937601</v>
       </c>
       <c r="F282">
-        <v>8.78376039037842E-2</v>
+        <v>1.0661068105196601</v>
       </c>
       <c r="G282">
-        <v>0.12148878596151</v>
+        <v>0.70058841740187605</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B283" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="C283">
-        <v>4659</v>
+        <v>4668</v>
       </c>
       <c r="D283" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="E283">
-        <v>0.70180070790313398</v>
+        <v>1.3705782046633901</v>
       </c>
       <c r="F283">
-        <v>0.51811218530177505</v>
+        <v>2.7391193043897499</v>
       </c>
       <c r="G283">
-        <v>0.53980218752006004</v>
+        <v>4.24624247325184</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="B284" t="s">
-        <v>570</v>
+        <v>392</v>
       </c>
       <c r="C284">
-        <v>270</v>
+        <v>4620</v>
       </c>
       <c r="D284" t="s">
-        <v>571</v>
+        <v>393</v>
       </c>
       <c r="E284">
-        <v>0.49676910324941798</v>
+        <v>0.26860565986076101</v>
       </c>
       <c r="F284">
-        <v>0.17103082804281899</v>
+        <v>0.18333218024773501</v>
       </c>
       <c r="G284">
-        <v>0.292921687601504</v>
+        <v>9.7017777389317397E-2</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B285" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="C285">
-        <v>4915</v>
+        <v>5145</v>
       </c>
       <c r="D285" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="E285">
-        <v>1.05899335492291</v>
+        <v>0.496634581526188</v>
       </c>
       <c r="F285">
-        <v>0.18415110239171101</v>
+        <v>0.646020489908957</v>
       </c>
       <c r="G285">
-        <v>0.24890026375634999</v>
+        <v>0.75767468083998202</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B286" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="C286">
-        <v>4216</v>
+        <v>5202</v>
       </c>
       <c r="D286" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="E286">
-        <v>0.36291517793310601</v>
+        <v>1.2495281129334901</v>
       </c>
       <c r="F286">
-        <v>0.17237207785553199</v>
+        <v>1.3898188579583901</v>
       </c>
       <c r="G286">
-        <v>0.18620937592328601</v>
+        <v>1.5609279606637101</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="B287" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="C287">
-        <v>4512</v>
+        <v>380</v>
       </c>
       <c r="D287" t="s">
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="E287">
-        <v>0.15264352339401099</v>
+        <v>0.15702158341026901</v>
       </c>
       <c r="F287">
-        <v>0.11053304462039</v>
+        <v>0.10111785117401501</v>
       </c>
       <c r="G287">
-        <v>0.17699950459173799</v>
+        <v>0.178051988816844</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="B288" t="s">
-        <v>578</v>
+        <v>60</v>
       </c>
       <c r="C288">
-        <v>4510</v>
+        <v>5152</v>
       </c>
       <c r="D288" t="s">
-        <v>579</v>
+        <v>61</v>
       </c>
       <c r="E288">
-        <v>1.1144870413783301</v>
+        <v>1.3238122133844501</v>
       </c>
       <c r="F288">
-        <v>2.64936688234038</v>
+        <v>0.79999810207876698</v>
       </c>
       <c r="G288">
-        <v>3.3707308636155702</v>
+        <v>0.52693672611874998</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>287</v>
+        <v>88</v>
       </c>
       <c r="B289" t="s">
-        <v>580</v>
+        <v>182</v>
       </c>
       <c r="C289">
-        <v>4668</v>
+        <v>4940</v>
       </c>
       <c r="D289" t="s">
-        <v>581</v>
+        <v>183</v>
       </c>
       <c r="E289">
-        <v>1.3705782046633901</v>
+        <v>0.31571056053810698</v>
       </c>
       <c r="F289">
-        <v>2.7391193043897499</v>
+        <v>0.25420719643766698</v>
       </c>
       <c r="G289">
-        <v>4.24624247325184</v>
+        <v>0.28046336894058599</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B290" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="C290">
-        <v>5226</v>
+        <v>4930</v>
       </c>
       <c r="D290" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="E290">
-        <v>1.70075007194489</v>
+        <v>0.354170135563461</v>
       </c>
       <c r="F290">
-        <v>0.67319626699768198</v>
+        <v>0.52718559894185402</v>
       </c>
       <c r="G290">
-        <v>1.00371806188181</v>
+        <v>0.31922155442879102</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="B291" t="s">
-        <v>584</v>
+        <v>512</v>
       </c>
       <c r="C291">
-        <v>770</v>
+        <v>350</v>
       </c>
       <c r="D291" t="s">
-        <v>585</v>
+        <v>513</v>
       </c>
       <c r="E291">
-        <v>0.324155185434232</v>
+        <v>0.32926453800456701</v>
       </c>
       <c r="F291">
-        <v>0.19645332773732099</v>
+        <v>0.128447557298979</v>
       </c>
       <c r="G291">
-        <v>0.31152552980463299</v>
+        <v>0.25498350604892001</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="B292" t="s">
-        <v>586</v>
+        <v>356</v>
       </c>
       <c r="C292">
-        <v>5131</v>
+        <v>130</v>
       </c>
       <c r="D292" t="s">
-        <v>587</v>
+        <v>357</v>
       </c>
       <c r="E292">
-        <v>0.67211045732323604</v>
+        <v>9.2015519408888899E-2</v>
       </c>
       <c r="F292">
-        <v>2.06615174727744</v>
+        <v>0.104857815975749</v>
       </c>
       <c r="G292">
-        <v>1.77809332111003</v>
+        <v>0.151450031533686</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="B293" t="s">
-        <v>588</v>
+        <v>484</v>
       </c>
       <c r="C293">
-        <v>1522</v>
+        <v>280</v>
       </c>
       <c r="D293" t="s">
-        <v>589</v>
+        <v>485</v>
       </c>
       <c r="E293">
-        <v>0.61751903380565198</v>
+        <v>0.24639991277946</v>
       </c>
       <c r="F293">
-        <v>0.62487973485138704</v>
+        <v>0.201168398067471</v>
       </c>
       <c r="G293">
-        <v>0.88341155310139996</v>
+        <v>0.821098348986535</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="B294" t="s">
-        <v>590</v>
+        <v>468</v>
       </c>
       <c r="C294">
-        <v>4062</v>
+        <v>513</v>
       </c>
       <c r="D294" t="s">
-        <v>591</v>
+        <v>469</v>
       </c>
       <c r="E294">
-        <v>0.93161285747122702</v>
+        <v>0.16910186044079401</v>
       </c>
       <c r="F294">
-        <v>0.95755893463881103</v>
+        <v>0.194858502070999</v>
       </c>
       <c r="G294">
-        <v>0.91189011570058998</v>
+        <v>0.166212820721927</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="B295" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="C295">
-        <v>4911</v>
+        <v>4270</v>
       </c>
       <c r="D295" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="E295">
-        <v>0.75848705695671703</v>
+        <v>1.4968839056318699</v>
       </c>
       <c r="F295">
-        <v>0.29514743081314998</v>
+        <v>0.99601305483895097</v>
       </c>
       <c r="G295">
-        <v>0.21403802140220499</v>
+        <v>0.80234943700244299</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>294</v>
+        <v>1</v>
       </c>
       <c r="B296" t="s">
-        <v>594</v>
+        <v>8</v>
       </c>
       <c r="C296">
-        <v>40</v>
+        <v>4962</v>
       </c>
       <c r="D296" t="s">
-        <v>595</v>
+        <v>9</v>
       </c>
       <c r="E296">
-        <v>0.17196469388355401</v>
+        <v>0.12866922500243</v>
       </c>
       <c r="F296">
-        <v>0.10802291258548199</v>
+        <v>9.4893688784312896E-2</v>
       </c>
       <c r="G296">
-        <v>0.18265472779163999</v>
+        <v>0.145633860392581</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>295</v>
+        <v>49</v>
       </c>
       <c r="B297" t="s">
-        <v>596</v>
+        <v>104</v>
       </c>
       <c r="C297">
-        <v>4930</v>
+        <v>4370</v>
       </c>
       <c r="D297" t="s">
-        <v>597</v>
+        <v>105</v>
       </c>
       <c r="E297">
-        <v>0.354170135563461</v>
+        <v>1.8641812386179499</v>
       </c>
       <c r="F297">
-        <v>0.52718559894185402</v>
+        <v>0.65290729120450097</v>
       </c>
       <c r="G297">
-        <v>0.31922155442879102</v>
+        <v>0.75487290087125902</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>296</v>
+        <v>52</v>
       </c>
       <c r="B298" t="s">
-        <v>598</v>
+        <v>110</v>
       </c>
       <c r="C298">
-        <v>5202</v>
+        <v>5110</v>
       </c>
       <c r="D298" t="s">
-        <v>599</v>
+        <v>111</v>
       </c>
       <c r="E298">
-        <v>1.2495281129334901</v>
+        <v>0.27430307494465</v>
       </c>
       <c r="F298">
-        <v>1.3898188579583901</v>
+        <v>0.130341167649348</v>
       </c>
       <c r="G298">
-        <v>1.5609279606637101</v>
+        <v>0.16887469986936501</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>297</v>
+        <v>111</v>
       </c>
       <c r="B299" t="s">
-        <v>600</v>
+        <v>228</v>
       </c>
       <c r="C299">
-        <v>5145</v>
+        <v>5203</v>
       </c>
       <c r="D299" t="s">
-        <v>601</v>
+        <v>229</v>
       </c>
       <c r="E299">
-        <v>0.496634581526188</v>
+        <v>1.4407864611835399</v>
       </c>
       <c r="F299">
-        <v>0.646020489908957</v>
+        <v>0.32107779687679999</v>
       </c>
       <c r="G299">
-        <v>0.75767468083998202</v>
+        <v>0.31372108011691202</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>298</v>
+        <v>2</v>
       </c>
       <c r="B300" t="s">
-        <v>602</v>
+        <v>10</v>
       </c>
       <c r="C300">
-        <v>4380</v>
+        <v>3250</v>
       </c>
       <c r="D300" t="s">
-        <v>603</v>
+        <v>11</v>
       </c>
       <c r="E300">
-        <v>0.77418960660293301</v>
+        <v>1.3767265903214301</v>
       </c>
       <c r="F300">
-        <v>1.0260722061560601</v>
+        <v>3.3099569385333898</v>
       </c>
       <c r="G300">
-        <v>1.0381720481438199</v>
+        <v>2.1356700831989999</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>299</v>
+        <v>30</v>
       </c>
       <c r="B301" t="s">
-        <v>604</v>
+        <v>66</v>
       </c>
       <c r="C301">
-        <v>4010</v>
+        <v>5416</v>
       </c>
       <c r="D301" t="s">
-        <v>605</v>
+        <v>67</v>
       </c>
       <c r="E301">
-        <v>2.8282197819864199</v>
+        <v>0.54351748411245104</v>
       </c>
       <c r="F301">
-        <v>2.1345787813419999</v>
+        <v>0.32455727380125099</v>
       </c>
       <c r="G301">
-        <v>2.4263421845022499</v>
+        <v>0.57498248510171901</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>300</v>
+        <v>117</v>
       </c>
       <c r="B302" t="s">
-        <v>606</v>
+        <v>240</v>
       </c>
       <c r="C302">
-        <v>5142</v>
+        <v>4061</v>
       </c>
       <c r="D302" t="s">
-        <v>607</v>
+        <v>241</v>
       </c>
       <c r="E302">
-        <v>0.13357792435492599</v>
+        <v>0.74969997661833099</v>
       </c>
       <c r="F302">
-        <v>7.3833002813496099E-2</v>
+        <v>3.73846669632935</v>
       </c>
       <c r="G302">
-        <v>6.7352499674671495E-2</v>
+        <v>4.65518642087609</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="B303" t="s">
-        <v>608</v>
+        <v>258</v>
       </c>
       <c r="C303">
-        <v>20</v>
+        <v>750</v>
       </c>
       <c r="D303" t="s">
-        <v>609</v>
+        <v>259</v>
       </c>
       <c r="E303">
-        <v>0.146772627860735</v>
+        <v>0.401223674309588</v>
       </c>
       <c r="F303">
-        <v>7.8544267053124797E-2</v>
+        <v>0.16113634217151501</v>
       </c>
       <c r="G303">
-        <v>0.14453112544701699</v>
+        <v>0.36745605302124401</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>302</v>
+        <v>24</v>
       </c>
       <c r="B304" t="s">
-        <v>610</v>
+        <v>54</v>
       </c>
       <c r="C304">
-        <v>4744</v>
+        <v>4310</v>
       </c>
       <c r="D304" t="s">
-        <v>611</v>
+        <v>55</v>
       </c>
       <c r="E304">
-        <v>0.19160930694859499</v>
+        <v>2.5815682447986501</v>
       </c>
       <c r="F304">
-        <v>0.229072328408433</v>
+        <v>1.3910244467383901</v>
       </c>
       <c r="G304">
-        <v>0.26210970295133601</v>
+        <v>1.4050735604273901</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="B305" t="s">
-        <v>612</v>
+        <v>416</v>
       </c>
       <c r="C305">
-        <v>4921</v>
+        <v>5135</v>
       </c>
       <c r="D305" t="s">
-        <v>613</v>
+        <v>417</v>
       </c>
       <c r="E305">
-        <v>2.2675023468712601</v>
+        <v>0.494397371156586</v>
       </c>
       <c r="F305">
-        <v>2.2180228543046598</v>
+        <v>1.24966455013653</v>
       </c>
       <c r="G305">
-        <v>2.0961458932417401</v>
+        <v>1.12972850621503</v>
       </c>
     </row>
   </sheetData>
